--- a/Sources for elasticities.xlsx
+++ b/Sources for elasticities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jryter_usgs_gov/Documents/Documents/generalizationOutside/generalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6019A56-43EB-BB42-BA89-4D38BB8290A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{E6019A56-43EB-BB42-BA89-4D38BB8290A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8FEC48-683A-4632-8112-3396AC67709E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{2EB28900-207C-9445-B75A-4B376A4483BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EB28900-207C-9445-B75A-4B376A4483BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,34 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Minesite costs" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2625,7 +2653,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3160,13 +3188,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FEA820-6AE6-CD42-B2A0-D4633FE287BB}">
   <dimension ref="A1:T733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3252,7 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3302,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -3321,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3445,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3494,7 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3542,7 @@
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3588,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
@@ -3606,7 +3634,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3654,7 +3682,7 @@
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="18" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3730,7 @@
       </c>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3809,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="18" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +3845,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="18" t="s">
         <v>0</v>
       </c>
@@ -3855,7 +3883,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3921,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3959,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +3997,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4035,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +4073,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4111,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
@@ -4121,7 +4149,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="18" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4187,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="18" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4225,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="18" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4263,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
@@ -4273,7 +4301,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
@@ -4311,7 +4339,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="18" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4377,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="18" t="s">
         <v>0</v>
       </c>
@@ -4387,7 +4415,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="18" t="s">
         <v>0</v>
       </c>
@@ -4425,7 +4453,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="18" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4491,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="18" t="s">
         <v>0</v>
       </c>
@@ -4501,7 +4529,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="18" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4567,7 @@
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="18" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4605,7 @@
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="18" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +4643,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4681,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="18" t="s">
         <v>0</v>
       </c>
@@ -4691,7 +4719,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="18" t="s">
         <v>258</v>
       </c>
@@ -4726,7 +4754,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="18" t="s">
         <v>258</v>
       </c>
@@ -4764,7 +4792,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="17"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="18" t="s">
         <v>258</v>
       </c>
@@ -4802,7 +4830,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="17"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="18" t="s">
         <v>258</v>
       </c>
@@ -4840,7 +4868,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="17"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="18" t="s">
         <v>258</v>
       </c>
@@ -4878,7 +4906,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="17"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="18" t="s">
         <v>258</v>
       </c>
@@ -4916,7 +4944,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="17"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="18" t="s">
         <v>258</v>
       </c>
@@ -4954,7 +4982,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="17"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="18" t="s">
         <v>258</v>
       </c>
@@ -4992,7 +5020,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="17"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="18" t="s">
         <v>258</v>
       </c>
@@ -5030,7 +5058,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="17"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="18" t="s">
         <v>258</v>
       </c>
@@ -5068,7 +5096,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="17"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="18" t="s">
         <v>259</v>
       </c>
@@ -5116,7 +5144,7 @@
       </c>
       <c r="R48" s="17"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="18" t="s">
         <v>259</v>
       </c>
@@ -5164,7 +5192,7 @@
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="18" t="s">
         <v>259</v>
       </c>
@@ -5212,7 +5240,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="18" t="s">
         <v>259</v>
       </c>
@@ -5255,14 +5283,12 @@
       <c r="P51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
+      <c r="Q51" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="S51" s="17"/>
-      <c r="T51" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="18" t="s">
         <v>259</v>
       </c>
@@ -5310,7 +5336,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="18" t="s">
         <v>259</v>
       </c>
@@ -5358,7 +5384,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="18" t="s">
         <v>259</v>
       </c>
@@ -5404,7 +5430,7 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="18" t="s">
         <v>259</v>
       </c>
@@ -5450,7 +5476,7 @@
       <c r="S55" s="17"/>
       <c r="T55" s="17"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="18" t="s">
         <v>259</v>
       </c>
@@ -5498,7 +5524,7 @@
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="18" t="s">
         <v>259</v>
       </c>
@@ -5546,7 +5572,7 @@
       </c>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="18" t="s">
         <v>259</v>
       </c>
@@ -5589,7 +5615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="18" t="s">
         <v>259</v>
       </c>
@@ -5624,7 +5650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="18" t="s">
         <v>210</v>
       </c>
@@ -5660,7 +5686,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="17"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="18" t="s">
         <v>25</v>
       </c>
@@ -5706,7 +5732,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="18" t="s">
         <v>25</v>
       </c>
@@ -5752,7 +5778,7 @@
       <c r="S62" s="17"/>
       <c r="T62" s="17"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="18" t="s">
         <v>25</v>
       </c>
@@ -5795,7 +5821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="18" t="s">
         <v>209</v>
       </c>
@@ -5830,7 +5856,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" s="18" t="s">
         <v>209</v>
       </c>
@@ -5868,7 +5894,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="17"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" s="18" t="s">
         <v>209</v>
       </c>
@@ -5906,7 +5932,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="17"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" s="18" t="s">
         <v>209</v>
       </c>
@@ -5944,7 +5970,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="17"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" s="18" t="s">
         <v>209</v>
       </c>
@@ -5982,7 +6008,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="17"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" s="18" t="s">
         <v>318</v>
       </c>
@@ -6017,7 +6043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" s="18" t="s">
         <v>318</v>
       </c>
@@ -6055,7 +6081,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" s="18" t="s">
         <v>318</v>
       </c>
@@ -6093,7 +6119,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" s="18" t="s">
         <v>318</v>
       </c>
@@ -6131,7 +6157,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" s="18" t="s">
         <v>317</v>
       </c>
@@ -6169,7 +6195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" s="18" t="s">
         <v>317</v>
       </c>
@@ -6205,7 +6231,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="17"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" s="18" t="s">
         <v>317</v>
       </c>
@@ -6241,7 +6267,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="17"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" s="18" t="s">
         <v>317</v>
       </c>
@@ -6277,7 +6303,7 @@
       <c r="S76" s="17"/>
       <c r="T76" s="17"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" s="18" t="s">
         <v>317</v>
       </c>
@@ -6313,7 +6339,7 @@
       <c r="S77" s="17"/>
       <c r="T77" s="17"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" s="18" t="s">
         <v>317</v>
       </c>
@@ -6351,7 +6377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" s="18" t="s">
         <v>317</v>
       </c>
@@ -6387,7 +6413,7 @@
       <c r="S79" s="17"/>
       <c r="T79" s="17"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" s="18" t="s">
         <v>317</v>
       </c>
@@ -6422,7 +6448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" s="18" t="s">
         <v>317</v>
       </c>
@@ -6457,7 +6483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" s="18" t="s">
         <v>317</v>
       </c>
@@ -6492,7 +6518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" s="18" t="s">
         <v>317</v>
       </c>
@@ -6528,7 +6554,7 @@
       <c r="S83" s="17"/>
       <c r="T83" s="17"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" s="18" t="s">
         <v>317</v>
       </c>
@@ -6564,7 +6590,7 @@
       <c r="S84" s="17"/>
       <c r="T84" s="17"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" s="18" t="s">
         <v>317</v>
       </c>
@@ -6600,7 +6626,7 @@
       <c r="S85" s="17"/>
       <c r="T85" s="17"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" s="18" t="s">
         <v>317</v>
       </c>
@@ -6638,7 +6664,7 @@
       <c r="S86" s="17"/>
       <c r="T86" s="17"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" s="18" t="s">
         <v>317</v>
       </c>
@@ -6676,7 +6702,7 @@
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" s="18" t="s">
         <v>317</v>
       </c>
@@ -6710,7 +6736,7 @@
       <c r="S88" s="17"/>
       <c r="T88" s="17"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" s="18" t="s">
         <v>317</v>
       </c>
@@ -6744,7 +6770,7 @@
       <c r="S89" s="17"/>
       <c r="T89" s="17"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" s="18" t="s">
         <v>317</v>
       </c>
@@ -6778,7 +6804,7 @@
       <c r="S90" s="17"/>
       <c r="T90" s="17"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" s="18" t="s">
         <v>317</v>
       </c>
@@ -6816,7 +6842,7 @@
       <c r="S91" s="17"/>
       <c r="T91" s="17"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" s="18" t="s">
         <v>317</v>
       </c>
@@ -6854,7 +6880,7 @@
       <c r="S92" s="17"/>
       <c r="T92" s="17"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" s="18" t="s">
         <v>317</v>
       </c>
@@ -6892,7 +6918,7 @@
       <c r="S93" s="17"/>
       <c r="T93" s="17"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" s="18" t="s">
         <v>317</v>
       </c>
@@ -6930,7 +6956,7 @@
       <c r="S94" s="17"/>
       <c r="T94" s="17"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" s="18" t="s">
         <v>317</v>
       </c>
@@ -6968,7 +6994,7 @@
       <c r="S95" s="17"/>
       <c r="T95" s="17"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" s="18" t="s">
         <v>317</v>
       </c>
@@ -7006,7 +7032,7 @@
       <c r="S96" s="17"/>
       <c r="T96" s="17"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" s="18" t="s">
         <v>317</v>
       </c>
@@ -7044,7 +7070,7 @@
       <c r="S97" s="17"/>
       <c r="T97" s="17"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" s="18" t="s">
         <v>58</v>
       </c>
@@ -7080,7 +7106,7 @@
       <c r="S98" s="17"/>
       <c r="T98" s="17"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" s="18" t="s">
         <v>58</v>
       </c>
@@ -7115,7 +7141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" s="18" t="s">
         <v>43</v>
       </c>
@@ -7150,7 +7176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" s="18" t="s">
         <v>43</v>
       </c>
@@ -7186,7 +7212,7 @@
       <c r="S101" s="17"/>
       <c r="T101" s="17"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" s="18" t="s">
         <v>43</v>
       </c>
@@ -7221,7 +7247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" s="18" t="s">
         <v>43</v>
       </c>
@@ -7257,7 +7283,7 @@
       <c r="S103" s="17"/>
       <c r="T103" s="17"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="18" t="s">
         <v>43</v>
       </c>
@@ -7295,7 +7321,7 @@
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="18" t="s">
         <v>43</v>
       </c>
@@ -7333,7 +7359,7 @@
       <c r="S105" s="17"/>
       <c r="T105" s="17"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="18" t="s">
         <v>42</v>
       </c>
@@ -7368,7 +7394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="18" t="s">
         <v>52</v>
       </c>
@@ -7404,7 +7430,7 @@
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="18" t="s">
         <v>52</v>
       </c>
@@ -7440,7 +7466,7 @@
       <c r="S108" s="17"/>
       <c r="T108" s="17"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="18" t="s">
         <v>52</v>
       </c>
@@ -7476,7 +7502,7 @@
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="18" t="s">
         <v>52</v>
       </c>
@@ -7511,7 +7537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="18" t="s">
         <v>52</v>
       </c>
@@ -7549,7 +7575,7 @@
       <c r="S111" s="17"/>
       <c r="T111" s="17"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="18" t="s">
         <v>52</v>
       </c>
@@ -7587,7 +7613,7 @@
       <c r="S112" s="17"/>
       <c r="T112" s="17"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="18" t="s">
         <v>52</v>
       </c>
@@ -7625,7 +7651,7 @@
       <c r="S113" s="17"/>
       <c r="T113" s="17"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="18" t="s">
         <v>52</v>
       </c>
@@ -7663,7 +7689,7 @@
       <c r="S114" s="17"/>
       <c r="T114" s="17"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="18" t="s">
         <v>52</v>
       </c>
@@ -7701,7 +7727,7 @@
       <c r="S115" s="17"/>
       <c r="T115" s="17"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="18" t="s">
         <v>52</v>
       </c>
@@ -7739,7 +7765,7 @@
       <c r="S116" s="17"/>
       <c r="T116" s="17"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="18" t="s">
         <v>52</v>
       </c>
@@ -7777,7 +7803,7 @@
       <c r="S117" s="17"/>
       <c r="T117" s="17"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="18" t="s">
         <v>52</v>
       </c>
@@ -7815,7 +7841,7 @@
       <c r="S118" s="17"/>
       <c r="T118" s="17"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="18" t="s">
         <v>52</v>
       </c>
@@ -7853,7 +7879,7 @@
       <c r="S119" s="17"/>
       <c r="T119" s="17"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="18" t="s">
         <v>52</v>
       </c>
@@ -7891,7 +7917,7 @@
       <c r="S120" s="17"/>
       <c r="T120" s="17"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="18" t="s">
         <v>52</v>
       </c>
@@ -7929,7 +7955,7 @@
       <c r="S121" s="17"/>
       <c r="T121" s="17"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="18" t="s">
         <v>52</v>
       </c>
@@ -7967,7 +7993,7 @@
       <c r="S122" s="17"/>
       <c r="T122" s="17"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="18" t="s">
         <v>52</v>
       </c>
@@ -8005,7 +8031,7 @@
       <c r="S123" s="17"/>
       <c r="T123" s="17"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="18" t="s">
         <v>52</v>
       </c>
@@ -8043,7 +8069,7 @@
       <c r="S124" s="17"/>
       <c r="T124" s="17"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="18" t="s">
         <v>52</v>
       </c>
@@ -8081,7 +8107,7 @@
       <c r="S125" s="17"/>
       <c r="T125" s="17"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="18" t="s">
         <v>52</v>
       </c>
@@ -8119,7 +8145,7 @@
       <c r="S126" s="17"/>
       <c r="T126" s="17"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="18" t="s">
         <v>52</v>
       </c>
@@ -8157,7 +8183,7 @@
       <c r="S127" s="17"/>
       <c r="T127" s="17"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="18" t="s">
         <v>52</v>
       </c>
@@ -8195,7 +8221,7 @@
       <c r="S128" s="17"/>
       <c r="T128" s="17"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="18" t="s">
         <v>52</v>
       </c>
@@ -8233,7 +8259,7 @@
       <c r="S129" s="17"/>
       <c r="T129" s="17"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="18" t="s">
         <v>52</v>
       </c>
@@ -8271,7 +8297,7 @@
       <c r="S130" s="17"/>
       <c r="T130" s="17"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="18" t="s">
         <v>52</v>
       </c>
@@ -8309,7 +8335,7 @@
       <c r="S131" s="17"/>
       <c r="T131" s="17"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="18" t="s">
         <v>52</v>
       </c>
@@ -8347,7 +8373,7 @@
       <c r="S132" s="17"/>
       <c r="T132" s="17"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="18" t="s">
         <v>52</v>
       </c>
@@ -8385,7 +8411,7 @@
       <c r="S133" s="17"/>
       <c r="T133" s="17"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="18" t="s">
         <v>52</v>
       </c>
@@ -8423,7 +8449,7 @@
       <c r="S134" s="17"/>
       <c r="T134" s="17"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="18" t="s">
         <v>52</v>
       </c>
@@ -8461,7 +8487,7 @@
       <c r="S135" s="17"/>
       <c r="T135" s="17"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="18" t="s">
         <v>52</v>
       </c>
@@ -8499,7 +8525,7 @@
       <c r="S136" s="17"/>
       <c r="T136" s="17"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="18" t="s">
         <v>52</v>
       </c>
@@ -8537,7 +8563,7 @@
       <c r="S137" s="17"/>
       <c r="T137" s="17"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="18" t="s">
         <v>52</v>
       </c>
@@ -8575,7 +8601,7 @@
       <c r="S138" s="17"/>
       <c r="T138" s="17"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="18" t="s">
         <v>52</v>
       </c>
@@ -8613,7 +8639,7 @@
       <c r="S139" s="17"/>
       <c r="T139" s="17"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="18" t="s">
         <v>52</v>
       </c>
@@ -8651,7 +8677,7 @@
       <c r="S140" s="17"/>
       <c r="T140" s="17"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="18" t="s">
         <v>52</v>
       </c>
@@ -8689,7 +8715,7 @@
       <c r="S141" s="17"/>
       <c r="T141" s="17"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="18" t="s">
         <v>52</v>
       </c>
@@ -8727,7 +8753,7 @@
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="18" t="s">
         <v>52</v>
       </c>
@@ -8765,7 +8791,7 @@
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="18" t="s">
         <v>52</v>
       </c>
@@ -8803,7 +8829,7 @@
       <c r="S144" s="17"/>
       <c r="T144" s="17"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="18" t="s">
         <v>52</v>
       </c>
@@ -8841,7 +8867,7 @@
       <c r="S145" s="17"/>
       <c r="T145" s="17"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" s="18" t="s">
         <v>52</v>
       </c>
@@ -8879,7 +8905,7 @@
       <c r="S146" s="17"/>
       <c r="T146" s="17"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" s="18" t="s">
         <v>52</v>
       </c>
@@ -8917,7 +8943,7 @@
       <c r="S147" s="17"/>
       <c r="T147" s="17"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" s="18" t="s">
         <v>52</v>
       </c>
@@ -8955,7 +8981,7 @@
       <c r="S148" s="17"/>
       <c r="T148" s="17"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" s="18" t="s">
         <v>52</v>
       </c>
@@ -8993,7 +9019,7 @@
       <c r="S149" s="17"/>
       <c r="T149" s="17"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" s="18" t="s">
         <v>52</v>
       </c>
@@ -9031,7 +9057,7 @@
       <c r="S150" s="17"/>
       <c r="T150" s="17"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" s="18" t="s">
         <v>52</v>
       </c>
@@ -9069,7 +9095,7 @@
       <c r="S151" s="17"/>
       <c r="T151" s="17"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" s="18" t="s">
         <v>52</v>
       </c>
@@ -9107,7 +9133,7 @@
       <c r="S152" s="17"/>
       <c r="T152" s="17"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" s="18" t="s">
         <v>52</v>
       </c>
@@ -9145,7 +9171,7 @@
       <c r="S153" s="17"/>
       <c r="T153" s="17"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" s="18" t="s">
         <v>52</v>
       </c>
@@ -9183,7 +9209,7 @@
       <c r="S154" s="17"/>
       <c r="T154" s="17"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" s="18" t="s">
         <v>52</v>
       </c>
@@ -9221,7 +9247,7 @@
       <c r="S155" s="17"/>
       <c r="T155" s="17"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="18" t="s">
         <v>52</v>
       </c>
@@ -9259,7 +9285,7 @@
       <c r="S156" s="17"/>
       <c r="T156" s="17"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" s="18" t="s">
         <v>52</v>
       </c>
@@ -9297,7 +9323,7 @@
       <c r="S157" s="17"/>
       <c r="T157" s="17"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" s="18" t="s">
         <v>52</v>
       </c>
@@ -9335,7 +9361,7 @@
       <c r="S158" s="17"/>
       <c r="T158" s="17"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" s="18" t="s">
         <v>52</v>
       </c>
@@ -9381,7 +9407,7 @@
       <c r="S159" s="17"/>
       <c r="T159" s="17"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160" s="18" t="s">
         <v>52</v>
       </c>
@@ -9417,7 +9443,7 @@
       <c r="S160" s="17"/>
       <c r="T160" s="17"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" s="18" t="s">
         <v>52</v>
       </c>
@@ -9455,7 +9481,7 @@
       <c r="S161" s="17"/>
       <c r="T161" s="17"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" s="18" t="s">
         <v>52</v>
       </c>
@@ -9493,7 +9519,7 @@
       <c r="S162" s="17"/>
       <c r="T162" s="17"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" s="18" t="s">
         <v>53</v>
       </c>
@@ -9529,7 +9555,7 @@
       <c r="S163" s="17"/>
       <c r="T163" s="17"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" s="18" t="s">
         <v>53</v>
       </c>
@@ -9564,7 +9590,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" s="18" t="s">
         <v>53</v>
       </c>
@@ -9599,7 +9625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" s="18" t="s">
         <v>53</v>
       </c>
@@ -9637,7 +9663,7 @@
       <c r="S166" s="17"/>
       <c r="T166" s="17"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" s="18" t="s">
         <v>53</v>
       </c>
@@ -9675,7 +9701,7 @@
       <c r="S167" s="17"/>
       <c r="T167" s="17"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168" s="18" t="s">
         <v>53</v>
       </c>
@@ -9713,7 +9739,7 @@
       <c r="S168" s="17"/>
       <c r="T168" s="17"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" s="18" t="s">
         <v>53</v>
       </c>
@@ -9751,7 +9777,7 @@
       <c r="S169" s="17"/>
       <c r="T169" s="17"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" s="18" t="s">
         <v>53</v>
       </c>
@@ -9789,7 +9815,7 @@
       <c r="S170" s="17"/>
       <c r="T170" s="17"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" s="18" t="s">
         <v>53</v>
       </c>
@@ -9827,7 +9853,7 @@
       <c r="S171" s="17"/>
       <c r="T171" s="17"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" s="18" t="s">
         <v>53</v>
       </c>
@@ -9865,7 +9891,7 @@
       <c r="S172" s="17"/>
       <c r="T172" s="17"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" s="18" t="s">
         <v>53</v>
       </c>
@@ -9903,7 +9929,7 @@
       <c r="S173" s="17"/>
       <c r="T173" s="17"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" s="18" t="s">
         <v>59</v>
       </c>
@@ -9939,7 +9965,7 @@
       <c r="S174" s="17"/>
       <c r="T174" s="17"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" s="18" t="s">
         <v>59</v>
       </c>
@@ -9974,7 +10000,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176" s="18" t="s">
         <v>319</v>
       </c>
@@ -10010,7 +10036,7 @@
       <c r="S176" s="17"/>
       <c r="T176" s="17"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" s="18" t="s">
         <v>320</v>
       </c>
@@ -10046,7 +10072,7 @@
       <c r="S177" s="17"/>
       <c r="T177" s="17"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" s="18" t="s">
         <v>321</v>
       </c>
@@ -10082,7 +10108,7 @@
       <c r="S178" s="17"/>
       <c r="T178" s="17"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" s="18" t="s">
         <v>322</v>
       </c>
@@ -10118,7 +10144,7 @@
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" s="18" t="s">
         <v>323</v>
       </c>
@@ -10153,7 +10179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" s="18" t="s">
         <v>324</v>
       </c>
@@ -10188,7 +10214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" s="18" t="s">
         <v>324</v>
       </c>
@@ -10224,7 +10250,7 @@
       <c r="S182" s="17"/>
       <c r="T182" s="17"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" s="18" t="s">
         <v>852</v>
       </c>
@@ -10270,7 +10296,7 @@
       <c r="S183" s="18"/>
       <c r="T183" s="18"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184" s="18" t="s">
         <v>853</v>
       </c>
@@ -10316,7 +10342,7 @@
       <c r="S184" s="18"/>
       <c r="T184" s="18"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" s="18" t="s">
         <v>325</v>
       </c>
@@ -10351,7 +10377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" s="18" t="s">
         <v>326</v>
       </c>
@@ -10386,7 +10412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" s="18" t="s">
         <v>327</v>
       </c>
@@ -10421,7 +10447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" s="18" t="s">
         <v>354</v>
       </c>
@@ -10463,7 +10489,7 @@
       <c r="S188" s="17"/>
       <c r="T188" s="17"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" s="18" t="s">
         <v>854</v>
       </c>
@@ -10505,7 +10531,7 @@
       <c r="S189" s="17"/>
       <c r="T189" s="17"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" s="18" t="s">
         <v>278</v>
       </c>
@@ -10539,7 +10565,7 @@
       <c r="S190" s="18"/>
       <c r="T190" s="18"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" s="18" t="s">
         <v>278</v>
       </c>
@@ -10573,7 +10599,7 @@
       <c r="S191" s="17"/>
       <c r="T191" s="17"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192" s="18" t="s">
         <v>278</v>
       </c>
@@ -10603,7 +10629,7 @@
       <c r="S192" s="17"/>
       <c r="T192" s="17"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193" s="18" t="s">
         <v>278</v>
       </c>
@@ -10651,7 +10677,7 @@
       <c r="S193" s="17"/>
       <c r="T193" s="17"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194" s="18" t="s">
         <v>278</v>
       </c>
@@ -10699,7 +10725,7 @@
       <c r="S194" s="17"/>
       <c r="T194" s="17"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195" s="18" t="s">
         <v>364</v>
       </c>
@@ -10747,7 +10773,7 @@
       <c r="S195" s="17"/>
       <c r="T195" s="17"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196" s="18" t="s">
         <v>372</v>
       </c>
@@ -10797,7 +10823,7 @@
       <c r="S196" s="17"/>
       <c r="T196" s="17"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197" s="18" t="s">
         <v>283</v>
       </c>
@@ -10833,7 +10859,7 @@
       <c r="S197" s="17"/>
       <c r="T197" s="17"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198" s="18" t="s">
         <v>283</v>
       </c>
@@ -10863,7 +10889,7 @@
       <c r="S198" s="17"/>
       <c r="T198" s="17"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199" s="18" t="s">
         <v>284</v>
       </c>
@@ -10908,7 +10934,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200" s="18" t="s">
         <v>284</v>
       </c>
@@ -10955,7 +10981,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20">
       <c r="A201" s="18" t="s">
         <v>284</v>
       </c>
@@ -11002,7 +11028,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20">
       <c r="A202" s="18" t="s">
         <v>284</v>
       </c>
@@ -11049,7 +11075,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20">
       <c r="A203" s="18" t="s">
         <v>284</v>
       </c>
@@ -11086,7 +11112,7 @@
       <c r="R203" s="17"/>
       <c r="S203" s="17"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20">
       <c r="A204" s="18" t="s">
         <v>284</v>
       </c>
@@ -11129,7 +11155,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20">
       <c r="A205" s="18" t="s">
         <v>284</v>
       </c>
@@ -11162,7 +11188,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20">
       <c r="A206" s="18" t="s">
         <v>284</v>
       </c>
@@ -11211,7 +11237,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20">
       <c r="A207" s="18" t="s">
         <v>292</v>
       </c>
@@ -11248,7 +11274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20">
       <c r="A208" s="18" t="s">
         <v>292</v>
       </c>
@@ -11281,7 +11307,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20">
       <c r="A209" s="18" t="s">
         <v>292</v>
       </c>
@@ -11330,7 +11356,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20">
       <c r="A210" s="18" t="s">
         <v>52</v>
       </c>
@@ -11368,7 +11394,7 @@
       <c r="S210" s="17"/>
       <c r="T210" s="17"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20">
       <c r="A211" s="18" t="s">
         <v>52</v>
       </c>
@@ -11406,7 +11432,7 @@
       <c r="S211" s="17"/>
       <c r="T211" s="17"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20">
       <c r="A212" s="18" t="s">
         <v>52</v>
       </c>
@@ -11444,7 +11470,7 @@
       <c r="S212" s="17"/>
       <c r="T212" s="17"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20">
       <c r="A213" s="18" t="s">
         <v>52</v>
       </c>
@@ -11482,7 +11508,7 @@
       <c r="S213" s="17"/>
       <c r="T213" s="17"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20">
       <c r="A214" s="18" t="s">
         <v>52</v>
       </c>
@@ -11520,7 +11546,7 @@
       <c r="S214" s="17"/>
       <c r="T214" s="17"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20">
       <c r="A215" s="18" t="s">
         <v>52</v>
       </c>
@@ -11558,7 +11584,7 @@
       <c r="S215" s="17"/>
       <c r="T215" s="17"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20">
       <c r="A216" s="18" t="s">
         <v>52</v>
       </c>
@@ -11596,7 +11622,7 @@
       <c r="S216" s="17"/>
       <c r="T216" s="17"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20">
       <c r="A217" s="18" t="s">
         <v>52</v>
       </c>
@@ -11634,7 +11660,7 @@
       <c r="S217" s="17"/>
       <c r="T217" s="17"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>317</v>
       </c>
@@ -11657,7 +11683,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>317</v>
       </c>
@@ -11680,7 +11706,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>317</v>
       </c>
@@ -11703,7 +11729,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>259</v>
       </c>
@@ -11726,7 +11752,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>259</v>
       </c>
@@ -11749,7 +11775,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>259</v>
       </c>
@@ -11772,7 +11798,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>259</v>
       </c>
@@ -11795,7 +11821,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17">
       <c r="A225" t="s">
         <v>259</v>
       </c>
@@ -11818,7 +11844,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>259</v>
       </c>
@@ -11844,7 +11870,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>259</v>
       </c>
@@ -11885,7 +11911,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>259</v>
       </c>
@@ -11908,7 +11934,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>259</v>
       </c>
@@ -11943,7 +11969,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -11984,7 +12010,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17">
       <c r="A231" t="s">
         <v>259</v>
       </c>
@@ -12007,7 +12033,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>259</v>
       </c>
@@ -12042,7 +12068,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>259</v>
       </c>
@@ -12083,7 +12109,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>259</v>
       </c>
@@ -12106,7 +12132,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>259</v>
       </c>
@@ -12147,7 +12173,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -12170,7 +12196,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17">
       <c r="A237" t="s">
         <v>259</v>
       </c>
@@ -12211,7 +12237,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -12252,7 +12278,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17">
       <c r="A239" t="s">
         <v>259</v>
       </c>
@@ -12293,7 +12319,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17">
       <c r="A240" t="s">
         <v>259</v>
       </c>
@@ -12334,7 +12360,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>259</v>
       </c>
@@ -12372,7 +12398,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17">
       <c r="A242" t="s">
         <v>259</v>
       </c>
@@ -12410,7 +12436,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -12448,7 +12474,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17">
       <c r="A244" t="s">
         <v>259</v>
       </c>
@@ -12486,7 +12512,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -12512,7 +12538,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17">
       <c r="A246" t="s">
         <v>259</v>
       </c>
@@ -12535,7 +12561,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -12558,7 +12584,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -12581,7 +12607,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17">
       <c r="A249" t="s">
         <v>259</v>
       </c>
@@ -12604,7 +12630,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17">
       <c r="A250" t="s">
         <v>259</v>
       </c>
@@ -12627,7 +12653,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -12650,7 +12676,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17">
       <c r="A252" t="s">
         <v>259</v>
       </c>
@@ -12673,7 +12699,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -12696,7 +12722,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -12719,7 +12745,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17">
       <c r="A255" t="s">
         <v>259</v>
       </c>
@@ -12742,7 +12768,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -12765,7 +12791,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -12788,7 +12814,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -12811,7 +12837,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -12834,7 +12860,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -12857,7 +12883,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -12880,7 +12906,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -12903,7 +12929,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -12926,7 +12952,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17">
       <c r="A264" t="s">
         <v>259</v>
       </c>
@@ -12949,7 +12975,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17">
       <c r="A265" t="s">
         <v>259</v>
       </c>
@@ -12972,7 +12998,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17">
       <c r="A266" t="s">
         <v>259</v>
       </c>
@@ -12995,7 +13021,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17">
       <c r="A267" t="s">
         <v>259</v>
       </c>
@@ -13018,7 +13044,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17">
       <c r="A268" t="s">
         <v>259</v>
       </c>
@@ -13041,7 +13067,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17">
       <c r="A269" t="s">
         <v>259</v>
       </c>
@@ -13064,7 +13090,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17">
       <c r="A270" t="s">
         <v>259</v>
       </c>
@@ -13087,7 +13113,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17">
       <c r="A271" t="s">
         <v>259</v>
       </c>
@@ -13110,7 +13136,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17">
       <c r="A272" t="s">
         <v>259</v>
       </c>
@@ -13133,7 +13159,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17">
       <c r="A273" t="s">
         <v>259</v>
       </c>
@@ -13156,7 +13182,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17">
       <c r="A274" t="s">
         <v>259</v>
       </c>
@@ -13179,7 +13205,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17">
       <c r="A275" t="s">
         <v>259</v>
       </c>
@@ -13202,7 +13228,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17">
       <c r="A276" t="s">
         <v>259</v>
       </c>
@@ -13225,7 +13251,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17">
       <c r="A277" t="s">
         <v>259</v>
       </c>
@@ -13248,7 +13274,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -13271,7 +13297,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17">
       <c r="A279" t="s">
         <v>259</v>
       </c>
@@ -13294,7 +13320,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17">
       <c r="A280" t="s">
         <v>259</v>
       </c>
@@ -13317,7 +13343,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17">
       <c r="A281" t="s">
         <v>259</v>
       </c>
@@ -13340,7 +13366,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17">
       <c r="A282" t="s">
         <v>259</v>
       </c>
@@ -13363,7 +13389,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17">
       <c r="A283" t="s">
         <v>259</v>
       </c>
@@ -13386,7 +13412,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17">
       <c r="A284" t="s">
         <v>259</v>
       </c>
@@ -13409,7 +13435,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17">
       <c r="A285" t="s">
         <v>259</v>
       </c>
@@ -13432,7 +13458,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17">
       <c r="A286" t="s">
         <v>259</v>
       </c>
@@ -13455,7 +13481,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17">
       <c r="A287" t="s">
         <v>259</v>
       </c>
@@ -13478,7 +13504,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17">
       <c r="A288" t="s">
         <v>259</v>
       </c>
@@ -13501,7 +13527,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17">
       <c r="A289" t="s">
         <v>259</v>
       </c>
@@ -13524,7 +13550,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17">
       <c r="A290" t="s">
         <v>259</v>
       </c>
@@ -13547,7 +13573,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17">
       <c r="A291" t="s">
         <v>259</v>
       </c>
@@ -13570,7 +13596,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17">
       <c r="A292" t="s">
         <v>259</v>
       </c>
@@ -13593,7 +13619,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17">
       <c r="A293" t="s">
         <v>259</v>
       </c>
@@ -13616,7 +13642,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17">
       <c r="A294" t="s">
         <v>259</v>
       </c>
@@ -13639,7 +13665,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17">
       <c r="A295" t="s">
         <v>259</v>
       </c>
@@ -13662,7 +13688,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17">
       <c r="A296" t="s">
         <v>259</v>
       </c>
@@ -13685,7 +13711,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17">
       <c r="A297" t="s">
         <v>259</v>
       </c>
@@ -13708,7 +13734,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17">
       <c r="A298" t="s">
         <v>259</v>
       </c>
@@ -13731,7 +13757,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17">
       <c r="A299" t="s">
         <v>259</v>
       </c>
@@ -13754,7 +13780,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17">
       <c r="A300" t="s">
         <v>259</v>
       </c>
@@ -13777,7 +13803,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17">
       <c r="A301" t="s">
         <v>259</v>
       </c>
@@ -13800,7 +13826,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17">
       <c r="A302" t="s">
         <v>259</v>
       </c>
@@ -13823,7 +13849,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17">
       <c r="A303" t="s">
         <v>259</v>
       </c>
@@ -13846,7 +13872,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17">
       <c r="A304" t="s">
         <v>259</v>
       </c>
@@ -13869,7 +13895,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>259</v>
       </c>
@@ -13895,7 +13921,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>259</v>
       </c>
@@ -13921,7 +13947,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>259</v>
       </c>
@@ -13950,7 +13976,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>259</v>
       </c>
@@ -13979,7 +14005,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>259</v>
       </c>
@@ -14008,7 +14034,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>259</v>
       </c>
@@ -14040,7 +14066,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17">
       <c r="A311" t="s">
         <v>259</v>
       </c>
@@ -14066,7 +14092,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17">
       <c r="A312" t="s">
         <v>259</v>
       </c>
@@ -14089,7 +14115,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17">
       <c r="A313" t="s">
         <v>259</v>
       </c>
@@ -14115,7 +14141,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17">
       <c r="A314" t="s">
         <v>259</v>
       </c>
@@ -14144,7 +14170,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17">
       <c r="A315" t="s">
         <v>259</v>
       </c>
@@ -14176,7 +14202,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17">
       <c r="A316" t="s">
         <v>259</v>
       </c>
@@ -14205,7 +14231,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17">
       <c r="A317" t="s">
         <v>259</v>
       </c>
@@ -14237,7 +14263,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17">
       <c r="A318" t="s">
         <v>259</v>
       </c>
@@ -14266,7 +14292,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17">
       <c r="A319" t="s">
         <v>259</v>
       </c>
@@ -14295,7 +14321,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17">
       <c r="A320" t="s">
         <v>259</v>
       </c>
@@ -14318,7 +14344,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17">
       <c r="A321" t="s">
         <v>259</v>
       </c>
@@ -14347,7 +14373,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17">
       <c r="A322" t="s">
         <v>259</v>
       </c>
@@ -14373,7 +14399,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17">
       <c r="A323" t="s">
         <v>259</v>
       </c>
@@ -14399,7 +14425,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17">
       <c r="A324" t="s">
         <v>259</v>
       </c>
@@ -14422,7 +14448,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17">
       <c r="A325" t="s">
         <v>259</v>
       </c>
@@ -14445,7 +14471,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17">
       <c r="A326" t="s">
         <v>259</v>
       </c>
@@ -14468,7 +14494,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17">
       <c r="A327" t="s">
         <v>259</v>
       </c>
@@ -14503,7 +14529,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17">
       <c r="A328" t="s">
         <v>259</v>
       </c>
@@ -14532,7 +14558,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17">
       <c r="A329" t="s">
         <v>259</v>
       </c>
@@ -14564,7 +14590,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17">
       <c r="A330" t="s">
         <v>259</v>
       </c>
@@ -14587,7 +14613,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17">
       <c r="A331" t="s">
         <v>259</v>
       </c>
@@ -14610,7 +14636,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17">
       <c r="A332" t="s">
         <v>259</v>
       </c>
@@ -14645,7 +14671,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17">
       <c r="A333" t="s">
         <v>259</v>
       </c>
@@ -14668,7 +14694,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17">
       <c r="A334" t="s">
         <v>259</v>
       </c>
@@ -14697,7 +14723,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17">
       <c r="A335" t="s">
         <v>259</v>
       </c>
@@ -14723,7 +14749,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17">
       <c r="A336" t="s">
         <v>259</v>
       </c>
@@ -14755,7 +14781,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17">
       <c r="A337" t="s">
         <v>259</v>
       </c>
@@ -14784,7 +14810,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17">
       <c r="A338" t="s">
         <v>259</v>
       </c>
@@ -14810,7 +14836,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17">
       <c r="A339" t="s">
         <v>259</v>
       </c>
@@ -14833,7 +14859,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17">
       <c r="A340" t="s">
         <v>259</v>
       </c>
@@ -14856,7 +14882,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17">
       <c r="A341" t="s">
         <v>259</v>
       </c>
@@ -14882,7 +14908,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17">
       <c r="A342" t="s">
         <v>259</v>
       </c>
@@ -14905,7 +14931,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17">
       <c r="A343" t="s">
         <v>259</v>
       </c>
@@ -14928,7 +14954,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17">
       <c r="A344" t="s">
         <v>259</v>
       </c>
@@ -14951,7 +14977,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17">
       <c r="A345" t="s">
         <v>259</v>
       </c>
@@ -14977,7 +15003,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17">
       <c r="A346" t="s">
         <v>259</v>
       </c>
@@ -15003,7 +15029,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17">
       <c r="A347" t="s">
         <v>259</v>
       </c>
@@ -15029,7 +15055,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17">
       <c r="A348" t="s">
         <v>259</v>
       </c>
@@ -15058,7 +15084,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17">
       <c r="A349" t="s">
         <v>259</v>
       </c>
@@ -15090,7 +15116,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17">
       <c r="A350" t="s">
         <v>259</v>
       </c>
@@ -15113,7 +15139,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17">
       <c r="A351" t="s">
         <v>259</v>
       </c>
@@ -15136,7 +15162,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17">
       <c r="A352" t="s">
         <v>259</v>
       </c>
@@ -15162,7 +15188,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17">
       <c r="A353" t="s">
         <v>259</v>
       </c>
@@ -15185,7 +15211,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17">
       <c r="A354" t="s">
         <v>259</v>
       </c>
@@ -15220,7 +15246,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17">
       <c r="A355" t="s">
         <v>259</v>
       </c>
@@ -15243,7 +15269,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17">
       <c r="A356" t="s">
         <v>259</v>
       </c>
@@ -15272,7 +15298,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17">
       <c r="A357" t="s">
         <v>259</v>
       </c>
@@ -15298,7 +15324,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17">
       <c r="A358" t="s">
         <v>259</v>
       </c>
@@ -15330,7 +15356,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17">
       <c r="A359" t="s">
         <v>259</v>
       </c>
@@ -15359,7 +15385,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17">
       <c r="A360" t="s">
         <v>259</v>
       </c>
@@ -15385,7 +15411,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17">
       <c r="A361" t="s">
         <v>259</v>
       </c>
@@ -15408,7 +15434,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17">
       <c r="A362" t="s">
         <v>259</v>
       </c>
@@ -15431,7 +15457,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17">
       <c r="A363" t="s">
         <v>259</v>
       </c>
@@ -15457,7 +15483,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17">
       <c r="A364" t="s">
         <v>259</v>
       </c>
@@ -15480,7 +15506,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17">
       <c r="A365" t="s">
         <v>259</v>
       </c>
@@ -15503,7 +15529,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17">
       <c r="A366" t="s">
         <v>259</v>
       </c>
@@ -15526,7 +15552,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17">
       <c r="A367" t="s">
         <v>259</v>
       </c>
@@ -15552,7 +15578,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17">
       <c r="A368" t="s">
         <v>259</v>
       </c>
@@ -15578,7 +15604,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17">
       <c r="A369" t="s">
         <v>259</v>
       </c>
@@ -15604,7 +15630,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17">
       <c r="A370" t="s">
         <v>259</v>
       </c>
@@ -15633,7 +15659,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17">
       <c r="A371" t="s">
         <v>259</v>
       </c>
@@ -15665,7 +15691,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17">
       <c r="A372" t="s">
         <v>259</v>
       </c>
@@ -15688,7 +15714,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17">
       <c r="A373" t="s">
         <v>259</v>
       </c>
@@ -15711,7 +15737,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17">
       <c r="A374" t="s">
         <v>259</v>
       </c>
@@ -15737,7 +15763,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17">
       <c r="A375" t="s">
         <v>259</v>
       </c>
@@ -15778,7 +15804,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17">
       <c r="A376" t="s">
         <v>259</v>
       </c>
@@ -15819,7 +15845,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17">
       <c r="A377" t="s">
         <v>259</v>
       </c>
@@ -15860,7 +15886,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17">
       <c r="A378" t="s">
         <v>259</v>
       </c>
@@ -15901,7 +15927,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17">
       <c r="A379" t="s">
         <v>259</v>
       </c>
@@ -15942,7 +15968,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17">
       <c r="A380" t="s">
         <v>259</v>
       </c>
@@ -15983,7 +16009,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17">
       <c r="A381" t="s">
         <v>259</v>
       </c>
@@ -16024,7 +16050,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17">
       <c r="A382" t="s">
         <v>259</v>
       </c>
@@ -16065,7 +16091,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17">
       <c r="A383" t="s">
         <v>259</v>
       </c>
@@ -16106,7 +16132,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17">
       <c r="A384" t="s">
         <v>259</v>
       </c>
@@ -16147,7 +16173,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17">
       <c r="A385" t="s">
         <v>259</v>
       </c>
@@ -16188,7 +16214,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17">
       <c r="A386" t="s">
         <v>259</v>
       </c>
@@ -16229,7 +16255,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17">
       <c r="A387" t="s">
         <v>259</v>
       </c>
@@ -16270,7 +16296,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17">
       <c r="A388" t="s">
         <v>259</v>
       </c>
@@ -16311,7 +16337,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17">
       <c r="A389" t="s">
         <v>259</v>
       </c>
@@ -16352,7 +16378,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17">
       <c r="A390" t="s">
         <v>259</v>
       </c>
@@ -16393,7 +16419,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17">
       <c r="A391" t="s">
         <v>259</v>
       </c>
@@ -16416,7 +16442,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17">
       <c r="A392" t="s">
         <v>259</v>
       </c>
@@ -16439,7 +16465,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17">
       <c r="A393" t="s">
         <v>259</v>
       </c>
@@ -16462,7 +16488,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17">
       <c r="A394" t="s">
         <v>259</v>
       </c>
@@ -16485,7 +16511,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17">
       <c r="A395" t="s">
         <v>259</v>
       </c>
@@ -16508,7 +16534,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17">
       <c r="A396" t="s">
         <v>259</v>
       </c>
@@ -16531,7 +16557,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17">
       <c r="A397" t="s">
         <v>259</v>
       </c>
@@ -16554,7 +16580,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17">
       <c r="A398" t="s">
         <v>259</v>
       </c>
@@ -16577,7 +16603,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17">
       <c r="A399" t="s">
         <v>259</v>
       </c>
@@ -16600,7 +16626,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17">
       <c r="A400" t="s">
         <v>259</v>
       </c>
@@ -16623,7 +16649,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17">
       <c r="A401" t="s">
         <v>259</v>
       </c>
@@ -16646,7 +16672,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17">
       <c r="A402" t="s">
         <v>259</v>
       </c>
@@ -16669,7 +16695,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17">
       <c r="A403" t="s">
         <v>259</v>
       </c>
@@ -16692,7 +16718,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17">
       <c r="A404" t="s">
         <v>259</v>
       </c>
@@ -16715,7 +16741,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17">
       <c r="A405" t="s">
         <v>259</v>
       </c>
@@ -16738,7 +16764,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17">
       <c r="A406" t="s">
         <v>0</v>
       </c>
@@ -16761,7 +16787,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17">
       <c r="A407" t="s">
         <v>0</v>
       </c>
@@ -16784,7 +16810,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -16807,7 +16833,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -16830,7 +16856,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -16853,7 +16879,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -16876,7 +16902,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -16899,7 +16925,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -16922,7 +16948,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -16945,7 +16971,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -16968,7 +16994,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17">
       <c r="A416" t="s">
         <v>0</v>
       </c>
@@ -16991,7 +17017,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17">
       <c r="A417" t="s">
         <v>0</v>
       </c>
@@ -17014,7 +17040,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17">
       <c r="A418" t="s">
         <v>0</v>
       </c>
@@ -17037,7 +17063,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17">
       <c r="A419" t="s">
         <v>0</v>
       </c>
@@ -17060,7 +17086,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17">
       <c r="A420" t="s">
         <v>0</v>
       </c>
@@ -17083,7 +17109,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17">
       <c r="A421" t="s">
         <v>0</v>
       </c>
@@ -17121,7 +17147,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17">
       <c r="A422" t="s">
         <v>0</v>
       </c>
@@ -17144,7 +17170,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17">
       <c r="A423" t="s">
         <v>0</v>
       </c>
@@ -17170,7 +17196,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17">
       <c r="A424" t="s">
         <v>0</v>
       </c>
@@ -17208,7 +17234,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17">
       <c r="A425" t="s">
         <v>0</v>
       </c>
@@ -17231,7 +17257,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17">
       <c r="A426" t="s">
         <v>0</v>
       </c>
@@ -17266,7 +17292,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17">
       <c r="A427" t="s">
         <v>0</v>
       </c>
@@ -17304,7 +17330,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17">
       <c r="A428" t="s">
         <v>0</v>
       </c>
@@ -17327,7 +17353,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17">
       <c r="A429" t="s">
         <v>0</v>
       </c>
@@ -17362,7 +17388,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17">
       <c r="A430" t="s">
         <v>0</v>
       </c>
@@ -17388,7 +17414,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17">
       <c r="A431" t="s">
         <v>0</v>
       </c>
@@ -17411,7 +17437,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17">
       <c r="A432" t="s">
         <v>0</v>
       </c>
@@ -17434,7 +17460,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17">
       <c r="A433" t="s">
         <v>0</v>
       </c>
@@ -17457,7 +17483,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17">
       <c r="A434" t="s">
         <v>0</v>
       </c>
@@ -17480,7 +17506,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17">
       <c r="A435" t="s">
         <v>0</v>
       </c>
@@ -17503,7 +17529,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17">
       <c r="A436" t="s">
         <v>0</v>
       </c>
@@ -17526,7 +17552,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17">
       <c r="A437" t="s">
         <v>0</v>
       </c>
@@ -17549,7 +17575,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17">
       <c r="A438" t="s">
         <v>0</v>
       </c>
@@ -17572,7 +17598,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17">
       <c r="A439" t="s">
         <v>0</v>
       </c>
@@ -17595,7 +17621,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17">
       <c r="A440" t="s">
         <v>0</v>
       </c>
@@ -17618,7 +17644,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17">
       <c r="A441" t="s">
         <v>0</v>
       </c>
@@ -17641,7 +17667,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17">
       <c r="A442" t="s">
         <v>0</v>
       </c>
@@ -17664,7 +17690,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17">
       <c r="A443" t="s">
         <v>0</v>
       </c>
@@ -17687,7 +17713,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17">
       <c r="A444" t="s">
         <v>0</v>
       </c>
@@ -17710,7 +17736,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17">
       <c r="A445" t="s">
         <v>0</v>
       </c>
@@ -17733,7 +17759,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17">
       <c r="A446" t="s">
         <v>0</v>
       </c>
@@ -17756,7 +17782,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17">
       <c r="A447" t="s">
         <v>0</v>
       </c>
@@ -17779,7 +17805,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17">
       <c r="A448" t="s">
         <v>0</v>
       </c>
@@ -17802,7 +17828,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17">
       <c r="A449" t="s">
         <v>0</v>
       </c>
@@ -17825,7 +17851,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17">
       <c r="A450" t="s">
         <v>0</v>
       </c>
@@ -17848,7 +17874,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17">
       <c r="A451" t="s">
         <v>0</v>
       </c>
@@ -17871,7 +17897,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17">
       <c r="A452" t="s">
         <v>0</v>
       </c>
@@ -17894,7 +17920,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17">
       <c r="A453" t="s">
         <v>0</v>
       </c>
@@ -17917,7 +17943,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17">
       <c r="A454" t="s">
         <v>0</v>
       </c>
@@ -17940,7 +17966,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17">
       <c r="A455" t="s">
         <v>0</v>
       </c>
@@ -17963,7 +17989,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17">
       <c r="A456" t="s">
         <v>0</v>
       </c>
@@ -17986,7 +18012,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17">
       <c r="A457" t="s">
         <v>0</v>
       </c>
@@ -18009,7 +18035,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17">
       <c r="A458" t="s">
         <v>0</v>
       </c>
@@ -18032,7 +18058,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17">
       <c r="A459" t="s">
         <v>0</v>
       </c>
@@ -18055,7 +18081,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17">
       <c r="A460" t="s">
         <v>0</v>
       </c>
@@ -18078,7 +18104,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17">
       <c r="A461" t="s">
         <v>0</v>
       </c>
@@ -18101,7 +18127,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17">
       <c r="A462" t="s">
         <v>0</v>
       </c>
@@ -18124,7 +18150,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17">
       <c r="A463" t="s">
         <v>0</v>
       </c>
@@ -18147,7 +18173,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17">
       <c r="A464" t="s">
         <v>0</v>
       </c>
@@ -18170,7 +18196,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17">
       <c r="A465" t="s">
         <v>0</v>
       </c>
@@ -18193,7 +18219,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17">
       <c r="A466" t="s">
         <v>0</v>
       </c>
@@ -18216,7 +18242,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17">
       <c r="A467" t="s">
         <v>0</v>
       </c>
@@ -18239,7 +18265,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17">
       <c r="A468" t="s">
         <v>0</v>
       </c>
@@ -18262,7 +18288,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17">
       <c r="A469" t="s">
         <v>0</v>
       </c>
@@ -18285,7 +18311,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17">
       <c r="A470" t="s">
         <v>0</v>
       </c>
@@ -18308,7 +18334,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17">
       <c r="A471" t="s">
         <v>0</v>
       </c>
@@ -18331,7 +18357,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17">
       <c r="A472" t="s">
         <v>0</v>
       </c>
@@ -18354,7 +18380,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17">
       <c r="A473" t="s">
         <v>0</v>
       </c>
@@ -18377,7 +18403,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17">
       <c r="A474" t="s">
         <v>0</v>
       </c>
@@ -18400,7 +18426,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17">
       <c r="A475" t="s">
         <v>0</v>
       </c>
@@ -18423,7 +18449,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17">
       <c r="A476" t="s">
         <v>0</v>
       </c>
@@ -18446,7 +18472,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17">
       <c r="A477" t="s">
         <v>0</v>
       </c>
@@ -18469,7 +18495,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17">
       <c r="A478" t="s">
         <v>0</v>
       </c>
@@ -18492,7 +18518,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17">
       <c r="A479" t="s">
         <v>0</v>
       </c>
@@ -18515,7 +18541,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17">
       <c r="A480" t="s">
         <v>0</v>
       </c>
@@ -18538,7 +18564,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17">
       <c r="A481" t="s">
         <v>0</v>
       </c>
@@ -18561,7 +18587,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17">
       <c r="A482" t="s">
         <v>0</v>
       </c>
@@ -18584,7 +18610,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17">
       <c r="A483" t="s">
         <v>0</v>
       </c>
@@ -18607,7 +18633,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17">
       <c r="A484" t="s">
         <v>0</v>
       </c>
@@ -18630,7 +18656,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17">
       <c r="A485" t="s">
         <v>0</v>
       </c>
@@ -18653,7 +18679,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17">
       <c r="A486" t="s">
         <v>0</v>
       </c>
@@ -18676,7 +18702,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17">
       <c r="A487" t="s">
         <v>0</v>
       </c>
@@ -18699,7 +18725,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17">
       <c r="A488" t="s">
         <v>0</v>
       </c>
@@ -18722,7 +18748,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17">
       <c r="A489" t="s">
         <v>0</v>
       </c>
@@ -18745,7 +18771,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17">
       <c r="A490" t="s">
         <v>0</v>
       </c>
@@ -18768,7 +18794,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17">
       <c r="A491" t="s">
         <v>0</v>
       </c>
@@ -18791,7 +18817,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17">
       <c r="A492" t="s">
         <v>0</v>
       </c>
@@ -18814,7 +18840,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17">
       <c r="A493" t="s">
         <v>0</v>
       </c>
@@ -18837,7 +18863,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17">
       <c r="A494" t="s">
         <v>0</v>
       </c>
@@ -18860,7 +18886,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17">
       <c r="A495" t="s">
         <v>0</v>
       </c>
@@ -18886,7 +18912,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17">
       <c r="A496" t="s">
         <v>0</v>
       </c>
@@ -18912,7 +18938,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17">
       <c r="A497" t="s">
         <v>0</v>
       </c>
@@ -18935,7 +18961,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17">
       <c r="A498" t="s">
         <v>0</v>
       </c>
@@ -18961,7 +18987,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17">
       <c r="A499" t="s">
         <v>0</v>
       </c>
@@ -18990,7 +19016,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17">
       <c r="A500" t="s">
         <v>0</v>
       </c>
@@ -19013,7 +19039,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17">
       <c r="A501" t="s">
         <v>0</v>
       </c>
@@ -19039,7 +19065,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17">
       <c r="A502" t="s">
         <v>0</v>
       </c>
@@ -19062,7 +19088,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17">
       <c r="A503" t="s">
         <v>0</v>
       </c>
@@ -19085,7 +19111,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17">
       <c r="A504" t="s">
         <v>0</v>
       </c>
@@ -19108,7 +19134,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17">
       <c r="A505" t="s">
         <v>0</v>
       </c>
@@ -19134,7 +19160,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17">
       <c r="A506" t="s">
         <v>0</v>
       </c>
@@ -19157,7 +19183,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17">
       <c r="A507" t="s">
         <v>0</v>
       </c>
@@ -19180,7 +19206,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17">
       <c r="A508" t="s">
         <v>0</v>
       </c>
@@ -19203,7 +19229,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17">
       <c r="A509" t="s">
         <v>0</v>
       </c>
@@ -19226,7 +19252,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17">
       <c r="A510" t="s">
         <v>0</v>
       </c>
@@ -19252,7 +19278,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17">
       <c r="A511" t="s">
         <v>0</v>
       </c>
@@ -19275,7 +19301,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17">
       <c r="A512" t="s">
         <v>0</v>
       </c>
@@ -19298,7 +19324,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17">
       <c r="A513" t="s">
         <v>0</v>
       </c>
@@ -19327,7 +19353,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17">
       <c r="A514" t="s">
         <v>0</v>
       </c>
@@ -19350,7 +19376,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17">
       <c r="A515" t="s">
         <v>0</v>
       </c>
@@ -19373,7 +19399,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17">
       <c r="A516" t="s">
         <v>0</v>
       </c>
@@ -19396,7 +19422,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17">
       <c r="A517" t="s">
         <v>0</v>
       </c>
@@ -19419,7 +19445,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17">
       <c r="A518" t="s">
         <v>0</v>
       </c>
@@ -19445,7 +19471,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17">
       <c r="A519" t="s">
         <v>0</v>
       </c>
@@ -19471,7 +19497,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17">
       <c r="A520" t="s">
         <v>0</v>
       </c>
@@ -19494,7 +19520,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17">
       <c r="A521" t="s">
         <v>0</v>
       </c>
@@ -19520,7 +19546,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17">
       <c r="A522" t="s">
         <v>0</v>
       </c>
@@ -19543,7 +19569,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17">
       <c r="A523" t="s">
         <v>0</v>
       </c>
@@ -19566,7 +19592,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17">
       <c r="A524" t="s">
         <v>0</v>
       </c>
@@ -19595,7 +19621,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17">
       <c r="A525" t="s">
         <v>0</v>
       </c>
@@ -19618,7 +19644,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17">
       <c r="A526" t="s">
         <v>0</v>
       </c>
@@ -19641,7 +19667,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17">
       <c r="A527" t="s">
         <v>0</v>
       </c>
@@ -19664,7 +19690,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17">
       <c r="A528" t="s">
         <v>0</v>
       </c>
@@ -19687,7 +19713,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17">
       <c r="A529" t="s">
         <v>0</v>
       </c>
@@ -19713,7 +19739,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -19739,7 +19765,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -19762,7 +19788,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -19803,7 +19829,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -19844,7 +19870,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -19885,7 +19911,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -19926,7 +19952,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -19967,7 +19993,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -20008,7 +20034,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -20049,7 +20075,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -20090,7 +20116,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20131,7 +20157,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20172,7 +20198,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -20213,7 +20239,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -20254,7 +20280,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -20295,7 +20321,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -20336,7 +20362,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -20377,7 +20403,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -20418,7 +20444,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17">
       <c r="A548" t="s">
         <v>0</v>
       </c>
@@ -20459,7 +20485,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17">
       <c r="A549" t="s">
         <v>0</v>
       </c>
@@ -20500,7 +20526,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -20523,7 +20549,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -20546,7 +20572,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -20569,7 +20595,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -20592,7 +20618,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17">
       <c r="A554" t="s">
         <v>0</v>
       </c>
@@ -20615,7 +20641,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -20638,7 +20664,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -20661,7 +20687,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17">
       <c r="A557" t="s">
         <v>696</v>
       </c>
@@ -20684,7 +20710,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17">
       <c r="A558" t="s">
         <v>696</v>
       </c>
@@ -20707,7 +20733,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17">
       <c r="A559" t="s">
         <v>696</v>
       </c>
@@ -20730,7 +20756,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17">
       <c r="A560" t="s">
         <v>696</v>
       </c>
@@ -20753,7 +20779,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17">
       <c r="A561" t="s">
         <v>696</v>
       </c>
@@ -20776,7 +20802,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17">
       <c r="A562" t="s">
         <v>696</v>
       </c>
@@ -20799,7 +20825,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17">
       <c r="A563" t="s">
         <v>696</v>
       </c>
@@ -20822,7 +20848,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17">
       <c r="A564" t="s">
         <v>696</v>
       </c>
@@ -20845,7 +20871,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17">
       <c r="A565" t="s">
         <v>696</v>
       </c>
@@ -20868,7 +20894,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17">
       <c r="A566" t="s">
         <v>696</v>
       </c>
@@ -20891,7 +20917,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17">
       <c r="A567" t="s">
         <v>696</v>
       </c>
@@ -20914,7 +20940,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17">
       <c r="A568" t="s">
         <v>696</v>
       </c>
@@ -20937,7 +20963,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17">
       <c r="A569" t="s">
         <v>696</v>
       </c>
@@ -20960,7 +20986,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17">
       <c r="A570" t="s">
         <v>696</v>
       </c>
@@ -20983,7 +21009,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17">
       <c r="A571" t="s">
         <v>696</v>
       </c>
@@ -21006,7 +21032,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17">
       <c r="A572" t="s">
         <v>696</v>
       </c>
@@ -21029,7 +21055,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17">
       <c r="A573" t="s">
         <v>696</v>
       </c>
@@ -21052,7 +21078,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17">
       <c r="A574" t="s">
         <v>696</v>
       </c>
@@ -21075,7 +21101,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17">
       <c r="A575" t="s">
         <v>696</v>
       </c>
@@ -21098,7 +21124,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17">
       <c r="A576" t="s">
         <v>696</v>
       </c>
@@ -21121,7 +21147,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17">
       <c r="A577" t="s">
         <v>696</v>
       </c>
@@ -21144,7 +21170,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17">
       <c r="A578" t="s">
         <v>696</v>
       </c>
@@ -21167,7 +21193,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17">
       <c r="A579" t="s">
         <v>696</v>
       </c>
@@ -21190,7 +21216,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17">
       <c r="A580" t="s">
         <v>696</v>
       </c>
@@ -21213,7 +21239,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17">
       <c r="A581" t="s">
         <v>696</v>
       </c>
@@ -21236,7 +21262,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17">
       <c r="A582" t="s">
         <v>696</v>
       </c>
@@ -21259,7 +21285,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17">
       <c r="A583" t="s">
         <v>696</v>
       </c>
@@ -21282,7 +21308,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17">
       <c r="A584" t="s">
         <v>696</v>
       </c>
@@ -21305,7 +21331,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17">
       <c r="A585" t="s">
         <v>696</v>
       </c>
@@ -21328,7 +21354,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17">
       <c r="A586" t="s">
         <v>696</v>
       </c>
@@ -21351,7 +21377,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17">
       <c r="A587" t="s">
         <v>696</v>
       </c>
@@ -21374,7 +21400,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17">
       <c r="A588" t="s">
         <v>696</v>
       </c>
@@ -21397,7 +21423,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17">
       <c r="A589" t="s">
         <v>696</v>
       </c>
@@ -21420,7 +21446,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17">
       <c r="A590" t="s">
         <v>696</v>
       </c>
@@ -21443,7 +21469,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17">
       <c r="A591" t="s">
         <v>696</v>
       </c>
@@ -21466,7 +21492,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17">
       <c r="A592" t="s">
         <v>696</v>
       </c>
@@ -21489,7 +21515,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17">
       <c r="A593" t="s">
         <v>696</v>
       </c>
@@ -21512,7 +21538,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17">
       <c r="A594" t="s">
         <v>696</v>
       </c>
@@ -21535,7 +21561,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:17">
       <c r="A595" t="s">
         <v>696</v>
       </c>
@@ -21558,7 +21584,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:17">
       <c r="A596" t="s">
         <v>696</v>
       </c>
@@ -21581,7 +21607,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:17">
       <c r="A597" t="s">
         <v>696</v>
       </c>
@@ -21604,7 +21630,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:17">
       <c r="A598" t="s">
         <v>696</v>
       </c>
@@ -21627,7 +21653,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:17">
       <c r="A599" t="s">
         <v>696</v>
       </c>
@@ -21650,7 +21676,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:17">
       <c r="A600" t="s">
         <v>52</v>
       </c>
@@ -21673,7 +21699,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:17">
       <c r="A601" t="s">
         <v>52</v>
       </c>
@@ -21696,7 +21722,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:17">
       <c r="A602" t="s">
         <v>52</v>
       </c>
@@ -21719,7 +21745,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:17">
       <c r="A603" t="s">
         <v>52</v>
       </c>
@@ -21742,7 +21768,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:17">
       <c r="A604" t="s">
         <v>52</v>
       </c>
@@ -21765,7 +21791,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17">
       <c r="A605" t="s">
         <v>52</v>
       </c>
@@ -21788,7 +21814,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17">
       <c r="A606" t="s">
         <v>52</v>
       </c>
@@ -21811,7 +21837,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17">
       <c r="A607" t="s">
         <v>52</v>
       </c>
@@ -21834,7 +21860,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17">
       <c r="A608" t="s">
         <v>52</v>
       </c>
@@ -21857,7 +21883,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17">
       <c r="A609" t="s">
         <v>52</v>
       </c>
@@ -21880,7 +21906,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17">
       <c r="A610" t="s">
         <v>52</v>
       </c>
@@ -21903,7 +21929,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17">
       <c r="A611" t="s">
         <v>52</v>
       </c>
@@ -21926,7 +21952,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17">
       <c r="A612" t="s">
         <v>52</v>
       </c>
@@ -21949,7 +21975,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17">
       <c r="A613" t="s">
         <v>52</v>
       </c>
@@ -21972,7 +21998,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17">
       <c r="A614" t="s">
         <v>52</v>
       </c>
@@ -21995,7 +22021,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17">
       <c r="A615" t="s">
         <v>52</v>
       </c>
@@ -22018,7 +22044,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17">
       <c r="A616" t="s">
         <v>52</v>
       </c>
@@ -22041,7 +22067,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17">
       <c r="A617" t="s">
         <v>52</v>
       </c>
@@ -22064,7 +22090,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17">
       <c r="A618" t="s">
         <v>52</v>
       </c>
@@ -22087,7 +22113,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17">
       <c r="A619" t="s">
         <v>52</v>
       </c>
@@ -22110,7 +22136,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17">
       <c r="A620" t="s">
         <v>52</v>
       </c>
@@ -22133,7 +22159,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17">
       <c r="A621" t="s">
         <v>52</v>
       </c>
@@ -22156,7 +22182,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17">
       <c r="A622" t="s">
         <v>52</v>
       </c>
@@ -22179,7 +22205,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17">
       <c r="A623" t="s">
         <v>52</v>
       </c>
@@ -22202,7 +22228,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17">
       <c r="A624" t="s">
         <v>52</v>
       </c>
@@ -22225,7 +22251,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17">
       <c r="A625" t="s">
         <v>52</v>
       </c>
@@ -22248,7 +22274,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17">
       <c r="A626" t="s">
         <v>52</v>
       </c>
@@ -22271,7 +22297,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17">
       <c r="A627" t="s">
         <v>52</v>
       </c>
@@ -22294,7 +22320,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17">
       <c r="A628" t="s">
         <v>52</v>
       </c>
@@ -22317,7 +22343,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17">
       <c r="A629" t="s">
         <v>52</v>
       </c>
@@ -22340,7 +22366,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17">
       <c r="A630" t="s">
         <v>52</v>
       </c>
@@ -22363,7 +22389,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17">
       <c r="A631" t="s">
         <v>52</v>
       </c>
@@ -22386,7 +22412,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:17">
       <c r="A632" t="s">
         <v>52</v>
       </c>
@@ -22409,7 +22435,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:17">
       <c r="A633" t="s">
         <v>52</v>
       </c>
@@ -22432,7 +22458,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:17">
       <c r="A634" t="s">
         <v>52</v>
       </c>
@@ -22455,7 +22481,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:17">
       <c r="A635" t="s">
         <v>52</v>
       </c>
@@ -22478,7 +22504,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:17">
       <c r="A636" t="s">
         <v>52</v>
       </c>
@@ -22507,7 +22533,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:17">
       <c r="A637" t="s">
         <v>52</v>
       </c>
@@ -22530,7 +22556,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:17">
       <c r="A638" t="s">
         <v>52</v>
       </c>
@@ -22553,7 +22579,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:17">
       <c r="A639" t="s">
         <v>52</v>
       </c>
@@ -22576,7 +22602,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:17">
       <c r="A640" t="s">
         <v>52</v>
       </c>
@@ -22599,7 +22625,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:17">
       <c r="A641" t="s">
         <v>52</v>
       </c>
@@ -22622,7 +22648,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:17">
       <c r="A642" t="s">
         <v>52</v>
       </c>
@@ -22645,7 +22671,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:17">
       <c r="A643" t="s">
         <v>52</v>
       </c>
@@ -22668,7 +22694,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:17">
       <c r="A644" t="s">
         <v>52</v>
       </c>
@@ -22691,7 +22717,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:17">
       <c r="A645" t="s">
         <v>52</v>
       </c>
@@ -22714,7 +22740,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:17">
       <c r="A646" t="s">
         <v>52</v>
       </c>
@@ -22737,7 +22763,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:17">
       <c r="A647" t="s">
         <v>52</v>
       </c>
@@ -22760,7 +22786,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:17">
       <c r="A648" t="s">
         <v>52</v>
       </c>
@@ -22783,7 +22809,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:17">
       <c r="A649" t="s">
         <v>52</v>
       </c>
@@ -22806,7 +22832,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:17">
       <c r="A650" t="s">
         <v>52</v>
       </c>
@@ -22829,7 +22855,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:17">
       <c r="A651" t="s">
         <v>52</v>
       </c>
@@ -22852,7 +22878,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:17">
       <c r="A652" t="s">
         <v>52</v>
       </c>
@@ -22875,7 +22901,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:17">
       <c r="A653" t="s">
         <v>52</v>
       </c>
@@ -22898,7 +22924,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:17">
       <c r="A654" t="s">
         <v>52</v>
       </c>
@@ -22921,7 +22947,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:17">
       <c r="A655" t="s">
         <v>52</v>
       </c>
@@ -22944,7 +22970,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:17">
       <c r="A656" t="s">
         <v>52</v>
       </c>
@@ -22967,7 +22993,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:17">
       <c r="A657" t="s">
         <v>52</v>
       </c>
@@ -22990,7 +23016,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:17">
       <c r="A658" t="s">
         <v>52</v>
       </c>
@@ -23013,7 +23039,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:17">
       <c r="A659" t="s">
         <v>52</v>
       </c>
@@ -23036,7 +23062,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:17">
       <c r="A660" t="s">
         <v>52</v>
       </c>
@@ -23059,7 +23085,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:17">
       <c r="A661" t="s">
         <v>52</v>
       </c>
@@ -23082,7 +23108,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:17">
       <c r="A662" t="s">
         <v>52</v>
       </c>
@@ -23105,7 +23131,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:17">
       <c r="A663" t="s">
         <v>52</v>
       </c>
@@ -23128,7 +23154,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:17">
       <c r="A664" t="s">
         <v>52</v>
       </c>
@@ -23151,7 +23177,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:17">
       <c r="A665" t="s">
         <v>52</v>
       </c>
@@ -23174,7 +23200,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:17">
       <c r="A666" t="s">
         <v>52</v>
       </c>
@@ -23197,7 +23223,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:17">
       <c r="A667" t="s">
         <v>52</v>
       </c>
@@ -23220,7 +23246,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:17">
       <c r="A668" t="s">
         <v>52</v>
       </c>
@@ -23243,7 +23269,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:17">
       <c r="A669" t="s">
         <v>52</v>
       </c>
@@ -23266,7 +23292,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="670" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:17">
       <c r="A670" t="s">
         <v>52</v>
       </c>
@@ -23289,7 +23315,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="671" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:17">
       <c r="A671" t="s">
         <v>52</v>
       </c>
@@ -23312,7 +23338,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="672" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:17">
       <c r="A672" t="s">
         <v>52</v>
       </c>
@@ -23335,7 +23361,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="673" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:17">
       <c r="A673" t="s">
         <v>52</v>
       </c>
@@ -23358,7 +23384,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="674" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:17">
       <c r="A674" t="s">
         <v>52</v>
       </c>
@@ -23381,7 +23407,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="675" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:17">
       <c r="A675" t="s">
         <v>52</v>
       </c>
@@ -23404,7 +23430,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="676" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:17">
       <c r="A676" t="s">
         <v>52</v>
       </c>
@@ -23427,7 +23453,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="677" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:17">
       <c r="A677" t="s">
         <v>52</v>
       </c>
@@ -23450,7 +23476,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="678" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:17">
       <c r="A678" t="s">
         <v>52</v>
       </c>
@@ -23473,7 +23499,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="679" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:17">
       <c r="A679" t="s">
         <v>52</v>
       </c>
@@ -23496,7 +23522,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="680" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:17">
       <c r="A680" t="s">
         <v>52</v>
       </c>
@@ -23519,7 +23545,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="681" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:17">
       <c r="A681" t="s">
         <v>52</v>
       </c>
@@ -23542,7 +23568,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="682" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:17">
       <c r="A682" t="s">
         <v>52</v>
       </c>
@@ -23565,7 +23591,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="683" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:17">
       <c r="A683" t="s">
         <v>52</v>
       </c>
@@ -23588,7 +23614,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="684" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:17">
       <c r="A684" t="s">
         <v>52</v>
       </c>
@@ -23611,7 +23637,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="685" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:17">
       <c r="A685" t="s">
         <v>52</v>
       </c>
@@ -23634,7 +23660,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="686" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:17">
       <c r="A686" t="s">
         <v>52</v>
       </c>
@@ -23657,7 +23683,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="687" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:17">
       <c r="A687" t="s">
         <v>52</v>
       </c>
@@ -23680,7 +23706,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="688" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:17">
       <c r="A688" t="s">
         <v>52</v>
       </c>
@@ -23703,7 +23729,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17">
       <c r="A689" t="s">
         <v>52</v>
       </c>
@@ -23726,7 +23752,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17">
       <c r="A690" t="s">
         <v>52</v>
       </c>
@@ -23749,7 +23775,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17">
       <c r="A691" t="s">
         <v>52</v>
       </c>
@@ -23772,7 +23798,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17">
       <c r="A692" t="s">
         <v>52</v>
       </c>
@@ -23795,7 +23821,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17">
       <c r="A693" t="s">
         <v>52</v>
       </c>
@@ -23818,7 +23844,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17">
       <c r="A694" t="s">
         <v>52</v>
       </c>
@@ -23841,7 +23867,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17">
       <c r="A695" t="s">
         <v>52</v>
       </c>
@@ -23864,7 +23890,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17">
       <c r="A696" t="s">
         <v>52</v>
       </c>
@@ -23887,7 +23913,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17">
       <c r="A697" t="s">
         <v>52</v>
       </c>
@@ -23910,7 +23936,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17">
       <c r="A698" t="s">
         <v>52</v>
       </c>
@@ -23933,7 +23959,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17">
       <c r="A699" t="s">
         <v>52</v>
       </c>
@@ -23956,7 +23982,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17">
       <c r="A700" t="s">
         <v>52</v>
       </c>
@@ -23979,7 +24005,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17">
       <c r="A701" t="s">
         <v>52</v>
       </c>
@@ -24002,7 +24028,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17">
       <c r="A702" t="s">
         <v>52</v>
       </c>
@@ -24025,7 +24051,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17">
       <c r="A703" t="s">
         <v>52</v>
       </c>
@@ -24048,7 +24074,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17">
       <c r="A704" t="s">
         <v>52</v>
       </c>
@@ -24071,7 +24097,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="705" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:17">
       <c r="A705" t="s">
         <v>52</v>
       </c>
@@ -24094,7 +24120,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="706" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:17">
       <c r="A706" t="s">
         <v>52</v>
       </c>
@@ -24117,7 +24143,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="707" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:17">
       <c r="A707" t="s">
         <v>52</v>
       </c>
@@ -24140,7 +24166,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="708" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:17">
       <c r="A708" t="s">
         <v>52</v>
       </c>
@@ -24163,7 +24189,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="709" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:17">
       <c r="A709" t="s">
         <v>52</v>
       </c>
@@ -24186,7 +24212,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="710" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:17">
       <c r="A710" t="s">
         <v>52</v>
       </c>
@@ -24209,7 +24235,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="711" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:17">
       <c r="A711" t="s">
         <v>52</v>
       </c>
@@ -24232,7 +24258,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="712" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:17">
       <c r="A712" t="s">
         <v>52</v>
       </c>
@@ -24255,7 +24281,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="713" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:17">
       <c r="A713" t="s">
         <v>52</v>
       </c>
@@ -24278,7 +24304,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="714" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:17">
       <c r="A714" t="s">
         <v>52</v>
       </c>
@@ -24301,7 +24327,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="715" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:17">
       <c r="A715" t="s">
         <v>52</v>
       </c>
@@ -24324,7 +24350,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="716" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:17">
       <c r="A716" t="s">
         <v>52</v>
       </c>
@@ -24347,7 +24373,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="717" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:17">
       <c r="A717" t="s">
         <v>52</v>
       </c>
@@ -24370,7 +24396,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="718" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:17">
       <c r="A718" t="s">
         <v>52</v>
       </c>
@@ -24393,7 +24419,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="719" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:17">
       <c r="A719" t="s">
         <v>52</v>
       </c>
@@ -24416,7 +24442,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="720" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:17">
       <c r="A720" t="s">
         <v>52</v>
       </c>
@@ -24439,7 +24465,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="721" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:17">
       <c r="A721" t="s">
         <v>52</v>
       </c>
@@ -24462,7 +24488,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="722" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:17">
       <c r="A722" t="s">
         <v>52</v>
       </c>
@@ -24485,7 +24511,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="723" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:17">
       <c r="A723" t="s">
         <v>52</v>
       </c>
@@ -24508,7 +24534,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="724" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:17">
       <c r="A724" t="s">
         <v>52</v>
       </c>
@@ -24531,7 +24557,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="725" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:17">
       <c r="A725" t="s">
         <v>52</v>
       </c>
@@ -24554,7 +24580,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="726" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:17">
       <c r="A726" t="s">
         <v>52</v>
       </c>
@@ -24577,7 +24603,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="727" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:17">
       <c r="A727" t="s">
         <v>52</v>
       </c>
@@ -24600,7 +24626,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="728" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:17">
       <c r="A728" t="s">
         <v>789</v>
       </c>
@@ -24623,7 +24649,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="729" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:17">
       <c r="A729" t="s">
         <v>789</v>
       </c>
@@ -24646,7 +24672,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="730" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:17">
       <c r="A730" t="s">
         <v>789</v>
       </c>
@@ -24669,7 +24695,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="731" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:17">
       <c r="A731" t="s">
         <v>789</v>
       </c>
@@ -24692,7 +24718,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="732" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:17">
       <c r="A732" t="s">
         <v>789</v>
       </c>
@@ -24715,7 +24741,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="733" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:17">
       <c r="A733" t="s">
         <v>789</v>
       </c>
@@ -24906,16 +24932,16 @@
       <selection pane="bottomLeft" activeCell="F220" sqref="F219:N220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="6" max="13" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="6" max="13" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
@@ -24973,7 +24999,7 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -25023,7 +25049,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="17"/>
       <c r="B3" s="20" t="s">
         <v>374</v>
@@ -25068,7 +25094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="17"/>
       <c r="B4" s="20" t="s">
         <v>375</v>
@@ -25114,7 +25140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>376</v>
@@ -25160,7 +25186,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="17"/>
       <c r="B6" s="20" t="s">
         <v>377</v>
@@ -25207,7 +25233,7 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="17"/>
       <c r="B7" s="20" t="s">
         <v>378</v>
@@ -25253,7 +25279,7 @@
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>379</v>
@@ -25297,7 +25323,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="17"/>
       <c r="B9" s="20" t="s">
         <v>380</v>
@@ -25341,7 +25367,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="17"/>
       <c r="B10" s="20" t="s">
         <v>30</v>
@@ -25387,7 +25413,7 @@
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
         <v>34</v>
@@ -25433,7 +25459,7 @@
       </c>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>794</v>
@@ -25474,7 +25500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>795</v>
@@ -25508,7 +25534,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>796</v>
@@ -25542,7 +25568,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>397</v>
@@ -25578,7 +25604,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
         <v>401</v>
@@ -25614,7 +25640,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>404</v>
@@ -25650,7 +25676,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
         <v>406</v>
@@ -25686,7 +25712,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="18"/>
       <c r="B19" s="1" t="s">
         <v>408</v>
@@ -25722,7 +25748,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="18"/>
       <c r="B20" s="1" t="s">
         <v>410</v>
@@ -25758,7 +25784,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="18"/>
       <c r="B21" s="1" t="s">
         <v>412</v>
@@ -25794,7 +25820,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>416</v>
@@ -25830,7 +25856,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>418</v>
@@ -25866,7 +25892,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
         <v>797</v>
@@ -25902,7 +25928,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>799</v>
@@ -25938,7 +25964,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>800</v>
@@ -25974,7 +26000,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
         <v>802</v>
@@ -26010,7 +26036,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>804</v>
@@ -26046,7 +26072,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="18"/>
       <c r="B29" s="1" t="s">
         <v>806</v>
@@ -26082,7 +26108,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>807</v>
@@ -26118,7 +26144,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="18"/>
       <c r="B31" s="1" t="s">
         <v>808</v>
@@ -26154,7 +26180,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="18"/>
       <c r="B32" s="1" t="s">
         <v>809</v>
@@ -26190,7 +26216,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29">
       <c r="A33" s="18"/>
       <c r="B33" s="20" t="s">
         <v>810</v>
@@ -26235,7 +26261,7 @@
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29">
       <c r="A34" s="18"/>
       <c r="B34" s="20" t="s">
         <v>813</v>
@@ -26271,7 +26297,7 @@
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29">
       <c r="A35" s="18"/>
       <c r="B35" s="1" t="s">
         <v>814</v>
@@ -26307,7 +26333,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29">
       <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>815</v>
@@ -26343,7 +26369,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29">
       <c r="A37" s="18"/>
       <c r="B37" s="1" t="s">
         <v>817</v>
@@ -26379,7 +26405,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29">
       <c r="A38" s="18" t="s">
         <v>258</v>
       </c>
@@ -26414,7 +26440,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29">
       <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>381</v>
@@ -26450,7 +26476,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="17"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29">
       <c r="A40" s="18"/>
       <c r="B40" s="1" t="s">
         <v>381</v>
@@ -26486,7 +26512,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="17"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29">
       <c r="A41" s="18"/>
       <c r="B41" s="1" t="s">
         <v>381</v>
@@ -26522,7 +26548,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="17"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29">
       <c r="A42" s="18"/>
       <c r="B42" s="1" t="s">
         <v>381</v>
@@ -26558,7 +26584,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="17"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
       <c r="A43" s="18"/>
       <c r="B43" s="1" t="s">
         <v>381</v>
@@ -26594,7 +26620,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="17"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29">
       <c r="A44" s="18"/>
       <c r="B44" s="1" t="s">
         <v>381</v>
@@ -26630,7 +26656,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="17"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29">
       <c r="A45" s="18"/>
       <c r="B45" s="1" t="s">
         <v>381</v>
@@ -26666,7 +26692,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="17"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29">
       <c r="A46" s="18"/>
       <c r="B46" s="1" t="s">
         <v>381</v>
@@ -26702,7 +26728,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="17"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29">
       <c r="A47" s="18"/>
       <c r="B47" s="1" t="s">
         <v>381</v>
@@ -26738,7 +26764,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="17"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29">
       <c r="A48" s="18" t="s">
         <v>259</v>
       </c>
@@ -26786,7 +26812,7 @@
       </c>
       <c r="R48" s="17"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="17"/>
       <c r="B49" s="20" t="s">
         <v>374</v>
@@ -26832,7 +26858,7 @@
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="17"/>
       <c r="B50" s="20" t="s">
         <v>375</v>
@@ -26878,7 +26904,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="17"/>
       <c r="B51" s="20" t="s">
         <v>376</v>
@@ -26926,7 +26952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="17"/>
       <c r="B52" s="20" t="s">
         <v>377</v>
@@ -26972,7 +26998,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="17"/>
       <c r="B53" s="20" t="s">
         <v>378</v>
@@ -27018,7 +27044,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="17"/>
       <c r="B54" s="1" t="s">
         <v>379</v>
@@ -27062,7 +27088,7 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="17"/>
       <c r="B55" s="20" t="s">
         <v>380</v>
@@ -27106,7 +27132,7 @@
       <c r="S55" s="17"/>
       <c r="T55" s="17"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="17"/>
       <c r="B56" s="20" t="s">
         <v>30</v>
@@ -27152,7 +27178,7 @@
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="17"/>
       <c r="B57" s="20" t="s">
         <v>34</v>
@@ -27198,7 +27224,7 @@
       </c>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="17"/>
       <c r="B58" s="1" t="s">
         <v>794</v>
@@ -27239,7 +27265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="17"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -27272,7 +27298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="18" t="s">
         <v>210</v>
       </c>
@@ -27308,7 +27334,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="17"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="18" t="s">
         <v>25</v>
       </c>
@@ -27354,7 +27380,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="17"/>
       <c r="B62" s="20" t="s">
         <v>380</v>
@@ -27398,7 +27424,7 @@
       <c r="S62" s="17"/>
       <c r="T62" s="17"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="17"/>
       <c r="B63" s="1" t="s">
         <v>794</v>
@@ -27439,7 +27465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="18" t="s">
         <v>209</v>
       </c>
@@ -27474,7 +27500,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29">
       <c r="A65" s="18"/>
       <c r="B65" s="1" t="s">
         <v>381</v>
@@ -27510,7 +27536,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="17"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29">
       <c r="A66" s="18"/>
       <c r="B66" s="1" t="s">
         <v>381</v>
@@ -27546,7 +27572,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="17"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29">
       <c r="A67" s="18"/>
       <c r="B67" s="1" t="s">
         <v>381</v>
@@ -27582,7 +27608,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="17"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29">
       <c r="A68" s="18"/>
       <c r="B68" s="1" t="s">
         <v>381</v>
@@ -27618,7 +27644,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="17"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29">
       <c r="A69" s="18" t="s">
         <v>318</v>
       </c>
@@ -27662,7 +27688,7 @@
       <c r="AB69" s="17"/>
       <c r="AC69" s="17"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29">
       <c r="A70" s="18"/>
       <c r="B70" s="1" t="s">
         <v>351</v>
@@ -27707,7 +27733,7 @@
       <c r="AB70" s="17"/>
       <c r="AC70" s="17"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29">
       <c r="A71" s="18"/>
       <c r="B71" s="1" t="s">
         <v>420</v>
@@ -27743,7 +27769,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29">
       <c r="A72" s="18"/>
       <c r="B72" s="1" t="s">
         <v>424</v>
@@ -27779,7 +27805,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29">
       <c r="A73" s="18" t="s">
         <v>317</v>
       </c>
@@ -27817,7 +27843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29">
       <c r="A74" s="17"/>
       <c r="B74" s="20" t="s">
         <v>51</v>
@@ -27851,7 +27877,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="17"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29">
       <c r="A75" s="17"/>
       <c r="B75" s="20" t="s">
         <v>54</v>
@@ -27885,7 +27911,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="17"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29">
       <c r="A76" s="17"/>
       <c r="B76" s="20" t="s">
         <v>63</v>
@@ -27919,7 +27945,7 @@
       <c r="S76" s="17"/>
       <c r="T76" s="17"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29">
       <c r="A77" s="17"/>
       <c r="B77" s="1" t="s">
         <v>425</v>
@@ -27953,7 +27979,7 @@
       <c r="S77" s="17"/>
       <c r="T77" s="17"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29">
       <c r="A78" s="17"/>
       <c r="B78" s="1" t="s">
         <v>62</v>
@@ -27989,7 +28015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29">
       <c r="A79" s="17"/>
       <c r="B79" s="20" t="s">
         <v>65</v>
@@ -28023,7 +28049,7 @@
       <c r="S79" s="17"/>
       <c r="T79" s="17"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29">
       <c r="A80" s="17"/>
       <c r="B80" s="20" t="s">
         <v>66</v>
@@ -28056,7 +28082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" s="17"/>
       <c r="B81" s="20" t="s">
         <v>68</v>
@@ -28089,7 +28115,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" s="17"/>
       <c r="B82" s="20" t="s">
         <v>67</v>
@@ -28122,7 +28148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" s="18"/>
       <c r="B83" s="1" t="s">
         <v>426</v>
@@ -28156,7 +28182,7 @@
       <c r="S83" s="17"/>
       <c r="T83" s="17"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" s="18"/>
       <c r="B84" s="1" t="s">
         <v>429</v>
@@ -28190,7 +28216,7 @@
       <c r="S84" s="17"/>
       <c r="T84" s="17"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" s="18"/>
       <c r="B85" s="1" t="s">
         <v>431</v>
@@ -28224,7 +28250,7 @@
       <c r="S85" s="17"/>
       <c r="T85" s="17"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" s="18"/>
       <c r="B86" s="1" t="s">
         <v>432</v>
@@ -28260,7 +28286,7 @@
       <c r="S86" s="17"/>
       <c r="T86" s="17"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" s="18"/>
       <c r="B87" s="1" t="s">
         <v>432</v>
@@ -28296,7 +28322,7 @@
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" s="18"/>
       <c r="B88" s="1" t="s">
         <v>435</v>
@@ -28328,7 +28354,7 @@
       <c r="S88" s="17"/>
       <c r="T88" s="17"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" s="18"/>
       <c r="B89" s="1" t="s">
         <v>438</v>
@@ -28360,7 +28386,7 @@
       <c r="S89" s="17"/>
       <c r="T89" s="17"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" s="18"/>
       <c r="B90" s="1" t="s">
         <v>438</v>
@@ -28392,7 +28418,7 @@
       <c r="S90" s="17"/>
       <c r="T90" s="17"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" s="18"/>
       <c r="B91" s="1" t="s">
         <v>440</v>
@@ -28428,7 +28454,7 @@
       <c r="S91" s="17"/>
       <c r="T91" s="17"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" s="18"/>
       <c r="B92" s="1" t="s">
         <v>440</v>
@@ -28464,7 +28490,7 @@
       <c r="S92" s="17"/>
       <c r="T92" s="17"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" s="18"/>
       <c r="B93" s="1" t="s">
         <v>445</v>
@@ -28500,7 +28526,7 @@
       <c r="S93" s="17"/>
       <c r="T93" s="17"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" s="18"/>
       <c r="B94" s="1" t="s">
         <v>829</v>
@@ -28536,7 +28562,7 @@
       <c r="S94" s="17"/>
       <c r="T94" s="17"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" s="18"/>
       <c r="B95" s="1" t="s">
         <v>831</v>
@@ -28572,7 +28598,7 @@
       <c r="S95" s="17"/>
       <c r="T95" s="17"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" s="18"/>
       <c r="B96" s="1" t="s">
         <v>833</v>
@@ -28608,7 +28634,7 @@
       <c r="S96" s="17"/>
       <c r="T96" s="17"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" s="18"/>
       <c r="B97" s="1" t="s">
         <v>835</v>
@@ -28644,7 +28670,7 @@
       <c r="S97" s="17"/>
       <c r="T97" s="17"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" s="18" t="s">
         <v>58</v>
       </c>
@@ -28680,7 +28706,7 @@
       <c r="S98" s="17"/>
       <c r="T98" s="17"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" s="17"/>
       <c r="B99" s="20" t="s">
         <v>62</v>
@@ -28713,7 +28739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" s="18" t="s">
         <v>43</v>
       </c>
@@ -28748,7 +28774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" s="17"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -28782,7 +28808,7 @@
       <c r="S101" s="17"/>
       <c r="T101" s="17"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" s="17"/>
       <c r="B102" s="20" t="s">
         <v>62</v>
@@ -28815,7 +28841,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" s="17"/>
       <c r="B103" s="20" t="s">
         <v>65</v>
@@ -28849,7 +28875,7 @@
       <c r="S103" s="17"/>
       <c r="T103" s="17"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="18"/>
       <c r="B104" s="1" t="s">
         <v>539</v>
@@ -28885,7 +28911,7 @@
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="18"/>
       <c r="B105" s="1" t="s">
         <v>539</v>
@@ -28921,7 +28947,7 @@
       <c r="S105" s="17"/>
       <c r="T105" s="17"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="18" t="s">
         <v>42</v>
       </c>
@@ -28956,7 +28982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="18" t="s">
         <v>52</v>
       </c>
@@ -28992,7 +29018,7 @@
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="17"/>
       <c r="B108" s="1" t="s">
         <v>425</v>
@@ -29026,7 +29052,7 @@
       <c r="S108" s="17"/>
       <c r="T108" s="17"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="17"/>
       <c r="B109" s="20" t="s">
         <v>60</v>
@@ -29060,7 +29086,7 @@
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="17"/>
       <c r="B110" s="20" t="s">
         <v>61</v>
@@ -29093,7 +29119,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="18"/>
       <c r="B111" s="1" t="s">
         <v>447</v>
@@ -29129,7 +29155,7 @@
       <c r="S111" s="17"/>
       <c r="T111" s="17"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="18"/>
       <c r="B112" s="1" t="s">
         <v>451</v>
@@ -29165,7 +29191,7 @@
       <c r="S112" s="17"/>
       <c r="T112" s="17"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="18"/>
       <c r="B113" s="1" t="s">
         <v>455</v>
@@ -29201,7 +29227,7 @@
       <c r="S113" s="17"/>
       <c r="T113" s="17"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="17"/>
       <c r="B114" s="1" t="s">
         <v>457</v>
@@ -29237,7 +29263,7 @@
       <c r="S114" s="17"/>
       <c r="T114" s="17"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="18"/>
       <c r="B115" s="1" t="s">
         <v>461</v>
@@ -29273,7 +29299,7 @@
       <c r="S115" s="17"/>
       <c r="T115" s="17"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="18"/>
       <c r="B116" s="1" t="s">
         <v>463</v>
@@ -29309,7 +29335,7 @@
       <c r="S116" s="17"/>
       <c r="T116" s="17"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="18"/>
       <c r="B117" s="1" t="s">
         <v>466</v>
@@ -29345,7 +29371,7 @@
       <c r="S117" s="17"/>
       <c r="T117" s="17"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="18"/>
       <c r="B118" s="1" t="s">
         <v>468</v>
@@ -29381,7 +29407,7 @@
       <c r="S118" s="17"/>
       <c r="T118" s="17"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="18"/>
       <c r="B119" s="1" t="s">
         <v>470</v>
@@ -29417,7 +29443,7 @@
       <c r="S119" s="17"/>
       <c r="T119" s="17"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="18"/>
       <c r="B120" s="1" t="s">
         <v>472</v>
@@ -29453,7 +29479,7 @@
       <c r="S120" s="17"/>
       <c r="T120" s="17"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="18"/>
       <c r="B121" s="1" t="s">
         <v>474</v>
@@ -29489,7 +29515,7 @@
       <c r="S121" s="17"/>
       <c r="T121" s="17"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="18"/>
       <c r="B122" s="1" t="s">
         <v>477</v>
@@ -29525,7 +29551,7 @@
       <c r="S122" s="17"/>
       <c r="T122" s="17"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="18"/>
       <c r="B123" s="1" t="s">
         <v>478</v>
@@ -29561,7 +29587,7 @@
       <c r="S123" s="17"/>
       <c r="T123" s="17"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="18"/>
       <c r="B124" s="1" t="s">
         <v>480</v>
@@ -29597,7 +29623,7 @@
       <c r="S124" s="17"/>
       <c r="T124" s="17"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="18"/>
       <c r="B125" s="1" t="s">
         <v>482</v>
@@ -29633,7 +29659,7 @@
       <c r="S125" s="17"/>
       <c r="T125" s="17"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="18"/>
       <c r="B126" s="1" t="s">
         <v>484</v>
@@ -29669,7 +29695,7 @@
       <c r="S126" s="17"/>
       <c r="T126" s="17"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="18"/>
       <c r="B127" s="1" t="s">
         <v>486</v>
@@ -29705,7 +29731,7 @@
       <c r="S127" s="17"/>
       <c r="T127" s="17"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="18"/>
       <c r="B128" s="1" t="s">
         <v>488</v>
@@ -29741,7 +29767,7 @@
       <c r="S128" s="17"/>
       <c r="T128" s="17"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="18"/>
       <c r="B129" s="1" t="s">
         <v>489</v>
@@ -29777,7 +29803,7 @@
       <c r="S129" s="17"/>
       <c r="T129" s="17"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="18"/>
       <c r="B130" s="1" t="s">
         <v>490</v>
@@ -29813,7 +29839,7 @@
       <c r="S130" s="17"/>
       <c r="T130" s="17"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="18"/>
       <c r="B131" s="1" t="s">
         <v>491</v>
@@ -29849,7 +29875,7 @@
       <c r="S131" s="17"/>
       <c r="T131" s="17"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="18"/>
       <c r="B132" s="1" t="s">
         <v>492</v>
@@ -29885,7 +29911,7 @@
       <c r="S132" s="17"/>
       <c r="T132" s="17"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="18"/>
       <c r="B133" s="1" t="s">
         <v>397</v>
@@ -29921,7 +29947,7 @@
       <c r="S133" s="17"/>
       <c r="T133" s="17"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="18"/>
       <c r="B134" s="1" t="s">
         <v>401</v>
@@ -29957,7 +29983,7 @@
       <c r="S134" s="17"/>
       <c r="T134" s="17"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="18"/>
       <c r="B135" s="1" t="s">
         <v>404</v>
@@ -29993,7 +30019,7 @@
       <c r="S135" s="17"/>
       <c r="T135" s="17"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="18"/>
       <c r="B136" s="1" t="s">
         <v>406</v>
@@ -30029,7 +30055,7 @@
       <c r="S136" s="17"/>
       <c r="T136" s="17"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="18"/>
       <c r="B137" s="1" t="s">
         <v>408</v>
@@ -30065,7 +30091,7 @@
       <c r="S137" s="17"/>
       <c r="T137" s="17"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="18"/>
       <c r="B138" s="1" t="s">
         <v>410</v>
@@ -30101,7 +30127,7 @@
       <c r="S138" s="17"/>
       <c r="T138" s="17"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="18"/>
       <c r="B139" s="1" t="s">
         <v>412</v>
@@ -30137,7 +30163,7 @@
       <c r="S139" s="17"/>
       <c r="T139" s="17"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="18"/>
       <c r="B140" s="1" t="s">
         <v>416</v>
@@ -30173,7 +30199,7 @@
       <c r="S140" s="17"/>
       <c r="T140" s="17"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="18"/>
       <c r="B141" s="1" t="s">
         <v>418</v>
@@ -30209,7 +30235,7 @@
       <c r="S141" s="17"/>
       <c r="T141" s="17"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="18"/>
       <c r="B142" s="1" t="s">
         <v>502</v>
@@ -30245,7 +30271,7 @@
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="18"/>
       <c r="B143" s="1" t="s">
         <v>504</v>
@@ -30281,7 +30307,7 @@
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="18"/>
       <c r="B144" s="1" t="s">
         <v>837</v>
@@ -30317,7 +30343,7 @@
       <c r="S144" s="17"/>
       <c r="T144" s="17"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="18"/>
       <c r="B145" s="1" t="s">
         <v>838</v>
@@ -30353,7 +30379,7 @@
       <c r="S145" s="17"/>
       <c r="T145" s="17"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" s="18"/>
       <c r="B146" s="1" t="s">
         <v>839</v>
@@ -30389,7 +30415,7 @@
       <c r="S146" s="17"/>
       <c r="T146" s="17"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" s="18"/>
       <c r="B147" s="1" t="s">
         <v>840</v>
@@ -30425,7 +30451,7 @@
       <c r="S147" s="17"/>
       <c r="T147" s="17"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" s="18"/>
       <c r="B148" s="1" t="s">
         <v>841</v>
@@ -30461,7 +30487,7 @@
       <c r="S148" s="17"/>
       <c r="T148" s="17"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" s="18"/>
       <c r="B149" s="1" t="s">
         <v>800</v>
@@ -30497,7 +30523,7 @@
       <c r="S149" s="17"/>
       <c r="T149" s="17"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" s="17"/>
       <c r="B150" s="1" t="s">
         <v>802</v>
@@ -30533,7 +30559,7 @@
       <c r="S150" s="17"/>
       <c r="T150" s="17"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" s="18"/>
       <c r="B151" s="1" t="s">
         <v>804</v>
@@ -30569,7 +30595,7 @@
       <c r="S151" s="17"/>
       <c r="T151" s="17"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" s="18"/>
       <c r="B152" s="1" t="s">
         <v>806</v>
@@ -30605,7 +30631,7 @@
       <c r="S152" s="17"/>
       <c r="T152" s="17"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" s="18"/>
       <c r="B153" s="1" t="s">
         <v>807</v>
@@ -30641,7 +30667,7 @@
       <c r="S153" s="17"/>
       <c r="T153" s="17"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" s="18"/>
       <c r="B154" s="1" t="s">
         <v>808</v>
@@ -30677,7 +30703,7 @@
       <c r="S154" s="17"/>
       <c r="T154" s="17"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" s="18"/>
       <c r="B155" s="1" t="s">
         <v>809</v>
@@ -30713,7 +30739,7 @@
       <c r="S155" s="17"/>
       <c r="T155" s="17"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="18"/>
       <c r="B156" s="1" t="s">
         <v>846</v>
@@ -30749,7 +30775,7 @@
       <c r="S156" s="17"/>
       <c r="T156" s="17"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" s="18"/>
       <c r="B157" s="1" t="s">
         <v>847</v>
@@ -30785,7 +30811,7 @@
       <c r="S157" s="17"/>
       <c r="T157" s="17"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" s="18"/>
       <c r="B158" s="1" t="s">
         <v>848</v>
@@ -30821,7 +30847,7 @@
       <c r="S158" s="17"/>
       <c r="T158" s="17"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" s="18"/>
       <c r="B159" s="1" t="s">
         <v>756</v>
@@ -30865,7 +30891,7 @@
       <c r="S159" s="17"/>
       <c r="T159" s="17"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160" s="18"/>
       <c r="B160" s="20" t="s">
         <v>810</v>
@@ -30899,7 +30925,7 @@
       <c r="S160" s="17"/>
       <c r="T160" s="17"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" s="17"/>
       <c r="B161" s="1" t="s">
         <v>795</v>
@@ -30935,7 +30961,7 @@
       <c r="S161" s="17"/>
       <c r="T161" s="17"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" s="17"/>
       <c r="B162" s="1" t="s">
         <v>796</v>
@@ -30971,7 +30997,7 @@
       <c r="S162" s="17"/>
       <c r="T162" s="17"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" s="18" t="s">
         <v>53</v>
       </c>
@@ -31007,7 +31033,7 @@
       <c r="S163" s="17"/>
       <c r="T163" s="17"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" s="17"/>
       <c r="B164" s="20" t="s">
         <v>60</v>
@@ -31040,7 +31066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" s="17"/>
       <c r="B165" s="20" t="s">
         <v>62</v>
@@ -31073,7 +31099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" s="18"/>
       <c r="B166" s="1" t="s">
         <v>800</v>
@@ -31109,7 +31135,7 @@
       <c r="S166" s="17"/>
       <c r="T166" s="17"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" s="17"/>
       <c r="B167" s="1" t="s">
         <v>800</v>
@@ -31145,7 +31171,7 @@
       <c r="S167" s="17"/>
       <c r="T167" s="17"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168" s="17"/>
       <c r="B168" s="1" t="s">
         <v>802</v>
@@ -31181,7 +31207,7 @@
       <c r="S168" s="17"/>
       <c r="T168" s="17"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" s="18"/>
       <c r="B169" s="1" t="s">
         <v>804</v>
@@ -31217,7 +31243,7 @@
       <c r="S169" s="17"/>
       <c r="T169" s="17"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" s="17"/>
       <c r="B170" s="1" t="s">
         <v>806</v>
@@ -31253,7 +31279,7 @@
       <c r="S170" s="17"/>
       <c r="T170" s="17"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" s="18"/>
       <c r="B171" s="1" t="s">
         <v>807</v>
@@ -31289,7 +31315,7 @@
       <c r="S171" s="17"/>
       <c r="T171" s="17"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" s="18"/>
       <c r="B172" s="1" t="s">
         <v>808</v>
@@ -31325,7 +31351,7 @@
       <c r="S172" s="17"/>
       <c r="T172" s="17"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" s="18"/>
       <c r="B173" s="1" t="s">
         <v>809</v>
@@ -31361,7 +31387,7 @@
       <c r="S173" s="17"/>
       <c r="T173" s="17"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" s="18" t="s">
         <v>59</v>
       </c>
@@ -31397,7 +31423,7 @@
       <c r="S174" s="17"/>
       <c r="T174" s="17"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" s="17"/>
       <c r="B175" s="20" t="s">
         <v>62</v>
@@ -31430,7 +31456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176" s="18" t="s">
         <v>319</v>
       </c>
@@ -31466,7 +31492,7 @@
       <c r="S176" s="17"/>
       <c r="T176" s="17"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" s="18" t="s">
         <v>320</v>
       </c>
@@ -31502,7 +31528,7 @@
       <c r="S177" s="17"/>
       <c r="T177" s="17"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" s="18" t="s">
         <v>321</v>
       </c>
@@ -31538,7 +31564,7 @@
       <c r="S178" s="17"/>
       <c r="T178" s="17"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" s="18" t="s">
         <v>322</v>
       </c>
@@ -31574,7 +31600,7 @@
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" s="18" t="s">
         <v>323</v>
       </c>
@@ -31609,7 +31635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" s="18" t="s">
         <v>324</v>
       </c>
@@ -31644,7 +31670,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" s="18"/>
       <c r="B182" s="21" t="s">
         <v>504</v>
@@ -31678,7 +31704,7 @@
       <c r="S182" s="17"/>
       <c r="T182" s="17"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" s="18" t="s">
         <v>852</v>
       </c>
@@ -31724,7 +31750,7 @@
       <c r="S183" s="18"/>
       <c r="T183" s="18"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184" s="18" t="s">
         <v>853</v>
       </c>
@@ -31770,7 +31796,7 @@
       <c r="S184" s="18"/>
       <c r="T184" s="18"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" s="18" t="s">
         <v>325</v>
       </c>
@@ -31805,7 +31831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" s="18" t="s">
         <v>326</v>
       </c>
@@ -31840,7 +31866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" s="18" t="s">
         <v>327</v>
       </c>
@@ -31875,7 +31901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" s="18" t="s">
         <v>354</v>
       </c>
@@ -31917,7 +31943,7 @@
       <c r="S188" s="17"/>
       <c r="T188" s="17"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" s="18" t="s">
         <v>854</v>
       </c>
@@ -31959,7 +31985,7 @@
       <c r="S189" s="17"/>
       <c r="T189" s="17"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" s="18" t="s">
         <v>278</v>
       </c>
@@ -31993,7 +32019,7 @@
       <c r="S190" s="18"/>
       <c r="T190" s="18"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" s="17"/>
       <c r="B191" s="20" t="s">
         <v>279</v>
@@ -32025,7 +32051,7 @@
       <c r="S191" s="17"/>
       <c r="T191" s="17"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192" s="17"/>
       <c r="B192" s="20" t="s">
         <v>280</v>
@@ -32053,7 +32079,7 @@
       <c r="S192" s="17"/>
       <c r="T192" s="17"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193" s="18"/>
       <c r="B193" s="18" t="s">
         <v>369</v>
@@ -32099,7 +32125,7 @@
       <c r="S193" s="17"/>
       <c r="T193" s="17"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194" s="18"/>
       <c r="B194" s="18" t="s">
         <v>370</v>
@@ -32145,7 +32171,7 @@
       <c r="S194" s="17"/>
       <c r="T194" s="17"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195" s="18" t="s">
         <v>364</v>
       </c>
@@ -32193,7 +32219,7 @@
       <c r="S195" s="17"/>
       <c r="T195" s="17"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196" s="18" t="s">
         <v>372</v>
       </c>
@@ -32243,7 +32269,7 @@
       <c r="S196" s="17"/>
       <c r="T196" s="17"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197" s="18" t="s">
         <v>283</v>
       </c>
@@ -32279,7 +32305,7 @@
       <c r="S197" s="17"/>
       <c r="T197" s="17"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198" s="17"/>
       <c r="B198" s="20" t="s">
         <v>280</v>
@@ -32307,7 +32333,7 @@
       <c r="S198" s="17"/>
       <c r="T198" s="17"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199" s="18" t="s">
         <v>284</v>
       </c>
@@ -32352,7 +32378,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200" s="17"/>
       <c r="B200" s="1" t="s">
         <v>384</v>
@@ -32397,7 +32423,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20">
       <c r="A201" s="17"/>
       <c r="B201" s="20" t="s">
         <v>385</v>
@@ -32442,7 +32468,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20">
       <c r="A202" s="17"/>
       <c r="B202" s="1" t="s">
         <v>386</v>
@@ -32487,7 +32513,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20">
       <c r="A203" s="17"/>
       <c r="B203" s="18" t="s">
         <v>367</v>
@@ -32522,7 +32548,7 @@
       <c r="R203" s="17"/>
       <c r="S203" s="17"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20">
       <c r="A204" s="17"/>
       <c r="B204" s="20" t="s">
         <v>305</v>
@@ -32563,7 +32589,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20">
       <c r="A205" s="17"/>
       <c r="B205" s="20" t="s">
         <v>307</v>
@@ -32594,7 +32620,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20">
       <c r="A206" s="17"/>
       <c r="B206" s="18" t="s">
         <v>313</v>
@@ -32641,7 +32667,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20">
       <c r="A207" s="18" t="s">
         <v>292</v>
       </c>
@@ -32678,7 +32704,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20">
       <c r="A208" s="17"/>
       <c r="B208" s="20" t="s">
         <v>307</v>
@@ -32709,7 +32735,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20">
       <c r="A209" s="17"/>
       <c r="B209" s="18" t="s">
         <v>313</v>
@@ -32756,7 +32782,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20">
       <c r="A210" s="18" t="s">
         <v>52</v>
       </c>
@@ -32792,7 +32818,7 @@
       <c r="S210" s="17"/>
       <c r="T210" s="17"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20">
       <c r="A211" s="17"/>
       <c r="B211" s="1" t="s">
         <v>424</v>
@@ -32826,7 +32852,7 @@
       <c r="S211" s="17"/>
       <c r="T211" s="17"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20">
       <c r="A212" s="17"/>
       <c r="B212" s="1" t="s">
         <v>510</v>
@@ -32862,7 +32888,7 @@
       <c r="S212" s="17"/>
       <c r="T212" s="17"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20">
       <c r="A213" s="17"/>
       <c r="B213" s="1" t="s">
         <v>513</v>
@@ -32898,7 +32924,7 @@
       <c r="S213" s="17"/>
       <c r="T213" s="17"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20">
       <c r="A214" s="17"/>
       <c r="B214" s="1" t="s">
         <v>516</v>
@@ -32932,7 +32958,7 @@
       <c r="S214" s="17"/>
       <c r="T214" s="17"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20">
       <c r="A215" s="17"/>
       <c r="B215" s="1" t="s">
         <v>518</v>
@@ -32966,7 +32992,7 @@
       <c r="S215" s="17"/>
       <c r="T215" s="17"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20">
       <c r="A216" s="17"/>
       <c r="B216" s="1" t="s">
         <v>520</v>
@@ -33000,7 +33026,7 @@
       <c r="S216" s="17"/>
       <c r="T216" s="17"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20">
       <c r="A217" s="17"/>
       <c r="B217" s="1" t="s">
         <v>522</v>
@@ -33203,16 +33229,16 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="137.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="137.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
@@ -33232,7 +33258,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>328</v>
       </c>
@@ -33272,7 +33298,7 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>333</v>
       </c>
@@ -33312,7 +33338,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="63">
       <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
@@ -33332,7 +33358,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="47.25">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -33352,7 +33378,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="47.25">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
@@ -33372,7 +33398,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="47.25">
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
@@ -33389,7 +33415,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>338</v>
       </c>
@@ -33429,7 +33455,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="57" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>132</v>
       </c>
@@ -33449,7 +33475,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="63">
       <c r="A10" s="1" t="s">
         <v>176</v>
       </c>
@@ -33469,7 +33495,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="47.25">
       <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
@@ -33489,7 +33515,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="31.5">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
@@ -33509,7 +33535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="47.25">
       <c r="A13" s="1" t="s">
         <v>265</v>
       </c>
@@ -33529,7 +33555,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>342</v>
       </c>
@@ -33569,7 +33595,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="47.25">
       <c r="A15" s="1" t="s">
         <v>191</v>
       </c>
@@ -33586,7 +33612,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="31.5">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -33603,7 +33629,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="78.75">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -33623,7 +33649,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="47.25">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
@@ -33640,7 +33666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="47.25">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -33657,7 +33683,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -33677,7 +33703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
@@ -33697,7 +33723,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -33717,7 +33743,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -33734,7 +33760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="31.5">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -33754,7 +33780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="47.25">
       <c r="A25" s="6" t="s">
         <v>116</v>
       </c>
@@ -33774,7 +33800,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="31.5">
       <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
@@ -33794,7 +33820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -33814,7 +33840,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="63">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -33834,7 +33860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -33854,7 +33880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="63">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -33874,7 +33900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="47.25">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
@@ -33894,7 +33920,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="47.25">
       <c r="A32" s="1" t="s">
         <v>172</v>
       </c>
@@ -33914,7 +33940,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
         <v>347</v>
       </c>
@@ -33954,7 +33980,7 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
     </row>
-    <row r="34" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
         <v>269</v>
       </c>
@@ -33974,7 +34000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="31.5">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -33991,21 +34017,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26">
       <c r="A36" s="1"/>
       <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26">
       <c r="A37" s="1"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26">
       <c r="A38" s="1"/>
       <c r="D38" s="4"/>
     </row>
@@ -34066,12 +34092,12 @@
       <selection activeCell="B31" sqref="B31:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="23.25">
       <c r="A1" s="25" t="s">
         <v>247</v>
       </c>
@@ -34088,7 +34114,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -34126,7 +34152,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
         <v>223</v>
       </c>
@@ -34167,7 +34193,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>225</v>
       </c>
@@ -34208,7 +34234,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>227</v>
       </c>
@@ -34249,7 +34275,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>228</v>
       </c>
@@ -34290,7 +34316,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>230</v>
       </c>
@@ -34331,7 +34357,7 @@
         <v>0.94059999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
         <v>231</v>
       </c>
@@ -34372,7 +34398,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
         <v>232</v>
       </c>
@@ -34413,7 +34439,7 @@
         <v>0.91220000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
         <v>233</v>
       </c>
@@ -34454,7 +34480,7 @@
         <v>0.9073</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
         <v>234</v>
       </c>
@@ -34495,7 +34521,7 @@
         <v>19430</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
         <v>235</v>
       </c>
@@ -34536,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
         <v>236</v>
       </c>
@@ -34577,7 +34603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
         <v>238</v>
       </c>
@@ -34618,7 +34644,7 @@
         <v>-16.760999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
         <v>242</v>
       </c>
@@ -34659,7 +34685,7 @@
         <v>4.8850000000000003E-15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
         <v>257</v>
       </c>
@@ -34700,7 +34726,7 @@
         <v>0.61839999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
         <v>243</v>
       </c>
@@ -34741,7 +34767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
         <v>239</v>
       </c>
@@ -34782,7 +34808,7 @@
         <v>-0.35110000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
         <v>244</v>
       </c>
@@ -34823,7 +34849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>240</v>
       </c>
@@ -34864,7 +34890,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
         <v>245</v>
       </c>
@@ -34905,7 +34931,7 @@
         <v>0.49690000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>115</v>
       </c>
@@ -34946,7 +34972,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
         <v>246</v>
       </c>
@@ -34987,7 +35013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="23.25">
       <c r="A27" s="25" t="s">
         <v>249</v>
       </c>
@@ -35004,7 +35030,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="B28" s="8" t="s">
         <v>2</v>
       </c>
@@ -35042,7 +35068,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
         <v>223</v>
       </c>
@@ -35083,7 +35109,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
         <v>225</v>
       </c>
@@ -35124,7 +35150,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
         <v>227</v>
       </c>
@@ -35165,7 +35191,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
         <v>228</v>
       </c>
@@ -35206,7 +35232,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
         <v>230</v>
       </c>
@@ -35247,7 +35273,7 @@
         <v>0.82289999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
         <v>231</v>
       </c>
@@ -35288,7 +35314,7 @@
         <v>0.50370000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
         <v>232</v>
       </c>
@@ -35329,7 +35355,7 @@
         <v>0.70240000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
         <v>233</v>
       </c>
@@ -35370,7 +35396,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
         <v>234</v>
       </c>
@@ -35411,7 +35437,7 @@
         <v>7593.8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
         <v>235</v>
       </c>
@@ -35452,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="8" t="s">
         <v>248</v>
       </c>
@@ -35493,7 +35519,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="8" t="s">
         <v>238</v>
       </c>
@@ -35534,7 +35560,7 @@
         <v>-46.429000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="8" t="s">
         <v>242</v>
       </c>
@@ -35575,7 +35601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="8" t="s">
         <v>239</v>
       </c>
@@ -35616,7 +35642,7 @@
         <v>-0.58250000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
         <v>244</v>
       </c>
@@ -35657,7 +35683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
         <v>240</v>
       </c>
@@ -35698,7 +35724,7 @@
         <v>0.28439999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
         <v>245</v>
       </c>
@@ -35739,7 +35765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
         <v>115</v>
       </c>
@@ -35780,7 +35806,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
         <v>246</v>
       </c>
@@ -35821,12 +35847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="20.25">
       <c r="A52" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="21">
       <c r="A56" s="14" t="s">
         <v>254</v>
       </c>
@@ -35867,7 +35893,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="8" t="s">
         <v>251</v>
       </c>
@@ -35908,7 +35934,7 @@
         <v>2785.33779</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="8" t="s">
         <v>252</v>
       </c>
@@ -35949,7 +35975,7 @@
         <v>2214.0390649999999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="11" t="s">
         <v>253</v>
       </c>
@@ -35990,62 +36016,62 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="18.75">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="18.75">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="18.75">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18.75">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="18.75">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="18.75">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="18.75">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="18.75">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="18.75">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="18.75">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
     </row>
-    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="18.75">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
     </row>
-    <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="18.75">
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="18.75">
       <c r="C73" s="13"/>
     </row>
-    <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="18.75">
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="18.75">
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="18.75">
       <c r="C76" s="13"/>
     </row>
   </sheetData>

--- a/Sources for elasticities.xlsx
+++ b/Sources for elasticities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jryter_usgs_gov/Documents/Documents/generalizationOutside/generalization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jryter_usgs_gov/Documents/Documents/generalizationOutside/GLOMBO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{E6019A56-43EB-BB42-BA89-4D38BB8290A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8FEC48-683A-4632-8112-3396AC67709E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{E6019A56-43EB-BB42-BA89-4D38BB8290A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4554DA-D320-4A6A-B1DC-4F27A014AF14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EB28900-207C-9445-B75A-4B376A4483BE}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{2EB28900-207C-9445-B75A-4B376A4483BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5828" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5822" uniqueCount="860">
   <si>
     <t>Demand elasticity to price</t>
   </si>
@@ -2643,6 +2643,9 @@
   </si>
   <si>
     <t>Rest of world</t>
+  </si>
+  <si>
+    <t>Hard to tell how many regressors were actually used</t>
   </si>
 </sst>
 </file>
@@ -3188,11 +3191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FEA820-6AE6-CD42-B2A0-D4633FE287BB}">
   <dimension ref="A1:T733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="G201" workbookViewId="0">
+      <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="18" t="s">
@@ -3298,9 +3301,7 @@
       <c r="Q2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>793</v>
-      </c>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="18" t="s">
@@ -6373,9 +6374,7 @@
       <c r="Q78" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="R78" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="R78" s="18"/>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="18" t="s">
@@ -6445,7 +6444,7 @@
         <v>77</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>81</v>
+        <v>859</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6657,9 +6656,7 @@
       <c r="P86" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="Q86" s="18" t="s">
-        <v>434</v>
-      </c>
+      <c r="Q86" s="18"/>
       <c r="R86" s="17"/>
       <c r="S86" s="17"/>
       <c r="T86" s="17"/>
@@ -6695,9 +6692,7 @@
       <c r="P87" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="Q87" s="18" t="s">
-        <v>434</v>
-      </c>
+      <c r="Q87" s="18"/>
       <c r="R87" s="17"/>
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
@@ -6835,9 +6830,7 @@
       <c r="P91" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="Q91" s="18" t="s">
-        <v>443</v>
-      </c>
+      <c r="Q91" s="18"/>
       <c r="R91" s="17"/>
       <c r="S91" s="17"/>
       <c r="T91" s="17"/>
@@ -6873,9 +6866,7 @@
       <c r="P92" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="Q92" s="18" t="s">
-        <v>443</v>
-      </c>
+      <c r="Q92" s="18"/>
       <c r="R92" s="17"/>
       <c r="S92" s="17"/>
       <c r="T92" s="17"/>
@@ -24932,13 +24923,13 @@
       <selection pane="bottomLeft" activeCell="F220" sqref="F219:N220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="37.34765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.84765625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="6" max="13" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.84765625" customWidth="1"/>
+    <col min="6" max="13" width="10.84765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -33229,12 +33220,12 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="137.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.84765625" style="2"/>
+    <col min="3" max="3" width="44.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" customWidth="1"/>
+    <col min="5" max="5" width="137.59765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33338,7 +33329,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="63">
+    <row r="4" spans="1:26" ht="62.4">
       <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
@@ -33358,7 +33349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="47.25">
+    <row r="5" spans="1:26" ht="46.8">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -33378,7 +33369,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="47.25">
+    <row r="6" spans="1:26" ht="46.8">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
@@ -33398,7 +33389,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="47.25">
+    <row r="7" spans="1:26" ht="46.8">
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
@@ -33475,7 +33466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="63">
+    <row r="10" spans="1:26" ht="62.4">
       <c r="A10" s="1" t="s">
         <v>176</v>
       </c>
@@ -33495,7 +33486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="47.25">
+    <row r="11" spans="1:26" ht="46.8">
       <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
@@ -33515,7 +33506,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="31.5">
+    <row r="12" spans="1:26" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
@@ -33535,7 +33526,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="47.25">
+    <row r="13" spans="1:26" ht="31.2">
       <c r="A13" s="1" t="s">
         <v>265</v>
       </c>
@@ -33595,7 +33586,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" ht="47.25">
+    <row r="15" spans="1:26" ht="46.8">
       <c r="A15" s="1" t="s">
         <v>191</v>
       </c>
@@ -33612,7 +33603,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="31.5">
+    <row r="16" spans="1:26" ht="31.2">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -33629,7 +33620,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="78.75">
+    <row r="17" spans="1:6" ht="78">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -33649,7 +33640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="47.25">
+    <row r="18" spans="1:6" ht="46.8">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
@@ -33666,7 +33657,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="47.25">
+    <row r="19" spans="1:6" ht="46.8">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -33683,7 +33674,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -33723,7 +33714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -33760,7 +33751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5">
+    <row r="24" spans="1:6" ht="31.2">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -33780,7 +33771,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="47.25">
+    <row r="25" spans="1:6" ht="46.8">
       <c r="A25" s="6" t="s">
         <v>116</v>
       </c>
@@ -33800,7 +33791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5">
+    <row r="26" spans="1:6" ht="31.2">
       <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
@@ -33820,7 +33811,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
+    <row r="27" spans="1:6" ht="31.2">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -33840,7 +33831,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="63">
+    <row r="28" spans="1:6" ht="62.4">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -33860,7 +33851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.5">
+    <row r="29" spans="1:6" ht="31.2">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -33880,7 +33871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="63">
+    <row r="30" spans="1:6" ht="62.4">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -33900,7 +33891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="47.25">
+    <row r="31" spans="1:6" ht="31.2">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
@@ -33920,7 +33911,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="47.25">
+    <row r="32" spans="1:6" ht="46.8">
       <c r="A32" s="1" t="s">
         <v>172</v>
       </c>
@@ -34000,7 +33991,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="31.5">
+    <row r="35" spans="1:26" ht="31.2">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -34092,12 +34083,12 @@
       <selection activeCell="B31" sqref="B31:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25">
+    <row r="1" spans="1:13" ht="23.1">
       <c r="A1" s="25" t="s">
         <v>247</v>
       </c>
@@ -35013,7 +35004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="23.25">
+    <row r="27" spans="1:13" ht="23.1">
       <c r="A27" s="25" t="s">
         <v>249</v>
       </c>
@@ -35847,12 +35838,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="20.25">
+    <row r="52" spans="1:13" ht="20.100000000000001">
       <c r="A52" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="21">
+    <row r="56" spans="1:13" ht="20.399999999999999">
       <c r="A56" s="14" t="s">
         <v>254</v>
       </c>
@@ -36016,62 +36007,62 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18.75">
+    <row r="60" spans="1:13" ht="18.3">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75">
+    <row r="61" spans="1:13" ht="18.3">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75">
+    <row r="62" spans="1:13" ht="18.3">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75">
+    <row r="63" spans="1:13" ht="18.3">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:13" ht="18.75">
+    <row r="64" spans="1:13" ht="18.3">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:3" ht="18.75">
+    <row r="65" spans="1:3" ht="18.3">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" ht="18.75">
+    <row r="66" spans="1:3" ht="18.3">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3" ht="18.75">
+    <row r="67" spans="1:3" ht="18.3">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3" ht="18.75">
+    <row r="68" spans="1:3" ht="18.3">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="1:3" ht="18.75">
+    <row r="69" spans="1:3" ht="18.3">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
     </row>
-    <row r="70" spans="1:3" ht="18.75">
+    <row r="70" spans="1:3" ht="18.3">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="1:3" ht="18.75">
+    <row r="71" spans="1:3" ht="18.3">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
     </row>
-    <row r="72" spans="1:3" ht="18.75">
+    <row r="72" spans="1:3" ht="18.3">
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:3" ht="18.75">
+    <row r="73" spans="1:3" ht="18.3">
       <c r="C73" s="13"/>
     </row>
-    <row r="74" spans="1:3" ht="18.75">
+    <row r="74" spans="1:3" ht="18.3">
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:3" ht="18.75">
+    <row r="75" spans="1:3" ht="18.3">
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="1:3" ht="18.75">
+    <row r="76" spans="1:3" ht="18.3">
       <c r="C76" s="13"/>
     </row>
   </sheetData>
